--- a/mls_urls.xlsx
+++ b/mls_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="667">
   <si>
     <t>x</t>
   </si>
@@ -644,6 +644,378 @@
     <t>209</t>
   </si>
   <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>281</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
+    <t>284</t>
+  </si>
+  <si>
+    <t>285</t>
+  </si>
+  <si>
+    <t>286</t>
+  </si>
+  <si>
+    <t>287</t>
+  </si>
+  <si>
+    <t>288</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>293</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>297</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>303</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>307</t>
+  </si>
+  <si>
+    <t>308</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>316</t>
+  </si>
+  <si>
+    <t>317</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>319</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>327</t>
+  </si>
+  <si>
+    <t>328</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>332</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/6b8eefb5/Inter-Miami-Real-Salt-Lake-February-21-2024-Major-League-Soccer</t>
   </si>
   <si>
@@ -1269,6 +1641,378 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/fd6a5705/LA-Galaxy-Houston-Dynamo-May-25-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/17a36202/CF-Montreal-DC-United-May-29-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5669fd57/New-York-Red-Bulls-Charlotte-FC-May-29-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6016a41a/FC-Cincinnati-Nashville-SC-May-29-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6f099543/Philadelphia-Union-Toronto-FC-May-29-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b19c2ffc/Inter-Miami-Atlanta-United-May-29-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/04c56680/LA-Galaxy-FC-Dallas-May-29-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/82ca4d08/Seattle-Sounders-FC-Real-Salt-Lake-May-29-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/93a3b656/Houston-Dynamo-Colorado-Rapids-May-29-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/abdec1e1/Austin-FC-Portland-Timbers-May-29-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bbaf48cb/Sporting-Kansas-City-Vancouver-Whitecaps-FC-May-29-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f92a7948/Chicago-Fire-Orlando-City-May-29-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/973f1dbc/Los-Angeles-FC-Minnesota-United-May-29-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b98f0356/New-York-City-FC-San-Jose-Earthquakes-May-31-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6c9704fa/Philadelphia-Union-CF-Montreal-June-1-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e2ae1793/DC-United-Toronto-FC-June-1-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/eb5fb03e/Inter-Miami-St-Louis-City-June-1-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ed7bcef7/New-York-Red-Bulls-Orlando-City-June-1-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1e81834c/Atlanta-United-Charlotte-FC-June-2-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/10e07cd8/Los-Angeles-FC-FC-Dallas-June-1-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4e312ea7/Real-Salt-Lake-Austin-FC-June-1-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5cbf9829/Minnesota-United-Sporting-Kansas-City-June-1-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/628fc15b/Chicago-Fire-LA-Galaxy-June-1-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c9e0e6df/Portland-Timbers-Houston-Dynamo-June-1-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ca9d6065/Nashville-SC-New-England-Revolution-June-1-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d7401fe4/Vancouver-Whitecaps-FC-Colorado-Rapids-June-1-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6ef8bb0d/New-England-Revolution-New-York-Red-Bulls-June-8-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/611051e1/Minnesota-United-FC-Dallas-June-8-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/671bb1b0/St-Louis-City-Portland-Timbers-June-8-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/749a3352/Sporting-Kansas-City-Seattle-Sounders-FC-June-8-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0af6242a/CF-Montreal-Real-Salt-Lake-June-15-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/10a41ebe/Orlando-City-Los-Angeles-FC-June-15-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/519eb9c3/New-England-Revolution-Vancouver-Whitecaps-FC-June-15-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/59694344/New-York-Red-Bulls-Nashville-SC-June-15-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8e445374/Atlanta-United-Houston-Dynamo-June-15-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9cc0529a/Philadelphia-Union-Inter-Miami-June-15-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b2d7ffe2/Charlotte-FC-DC-United-June-15-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d3e2ccc1/Toronto-FC-Chicago-Fire-June-15-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b257fd16/New-York-City-FC-Columbus-Crew-June-14-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/083ebbce/LA-Galaxy-Sporting-Kansas-City-June-15-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/518f8d53/FC-Dallas-St-Louis-City-June-15-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a79d94b1/Colorado-Rapids-Austin-FC-June-15-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b1a9a845/Seattle-Sounders-FC-Minnesota-United-June-15-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f3c4e115/San-Jose-Earthquakes-FC-Cincinnati-June-15-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/2b3b7b51/Inter-Miami-Columbus-Crew-June-19-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/64daa8d8/Toronto-FC-Nashville-SC-June-19-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ee7b834d/Charlotte-FC-Orlando-City-June-19-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f91383d4/CF-Montreal-New-York-Red-Bulls-June-19-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fd7fd486/DC-United-Atlanta-United-June-19-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/be05b176/FC-Cincinnati-Philadelphia-Union-June-19-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/470c300c/LA-Galaxy-New-York-City-FC-June-19-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/56e8cca3/Austin-FC-Los-Angeles-FC-June-19-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/855e2336/San-Jose-Earthquakes-Portland-Timbers-June-19-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8a76bacd/Houston-Dynamo-Seattle-Sounders-FC-June-19-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ab514d47/St-Louis-City-Colorado-Rapids-June-19-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d04dbf8d/FC-Dallas-Minnesota-United-June-19-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fd2e9aa9/Sporting-Kansas-City-Real-Salt-Lake-June-19-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/08da68e7/New-York-Red-Bulls-Toronto-FC-June-22-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/63776ca0/DC-United-Houston-Dynamo-June-22-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6e5024ee/Columbus-Crew-Sporting-Kansas-City-June-22-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/84511c19/FC-Cincinnati-New-England-Revolution-June-22-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b0d4b5ba/Philadelphia-Union-Charlotte-FC-June-22-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d11c358d/Orlando-City-Chicago-Fire-June-22-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/25a3e9b8/St-Louis-City-Atlanta-United-June-22-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4cef16cb/Seattle-Sounders-FC-FC-Dallas-June-22-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/675d8558/Real-Salt-Lake-LA-Galaxy-June-22-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6b75e8c0/Los-Angeles-FC-San-Jose-Earthquakes-June-22-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8e7f6842/Colorado-Rapids-CF-Montreal-June-22-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/97febfaa/Portland-Timbers-Vancouver-Whitecaps-FC-June-22-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9dbd8bc1/Nashville-SC-New-York-City-FC-June-22-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c419d850/Minnesota-United-Austin-FC-June-22-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4b0b42f5/New-York-City-FC-Orlando-City-June-28-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/115a9ae4/Atlanta-United-Toronto-FC-June-29-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/15593601/New-York-Red-Bulls-DC-United-June-29-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/45280bcf/CF-Montreal-Philadelphia-Union-June-29-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f0c85ac7/New-England-Revolution-Columbus-Crew-June-29-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/23594173/Los-Angeles-FC-Colorado-Rapids-June-29-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/29cb3cc4/Nashville-SC-Inter-Miami-June-29-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/82c20f2e/Vancouver-Whitecaps-FC-St-Louis-City-June-29-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/96faaf3d/Seattle-Sounders-FC-Chicago-Fire-June-29-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a5f4413f/Houston-Dynamo-Charlotte-FC-June-29-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bfc408d1/Portland-Timbers-Minnesota-United-June-29-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ce03db3e/Sporting-Kansas-City-Austin-FC-June-29-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d25b8ed4/California-Clasico-San-Jose-Earthquakes-LA-Galaxy-June-29-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/dc85f8b9/FC-Dallas-FC-Cincinnati-June-29-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/5c2bd91d/Toronto-FC-Orlando-City-July-3-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6b7b4ed7/Charlotte-FC-Inter-Miami-July-3-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/93a95f71/New-York-City-FC-CF-Montreal-July-3-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e002df43/DC-United-FC-Cincinnati-July-3-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9e059caa/New-England-Revolution-Atlanta-United-July-3-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0324e353/Chicago-Fire-Philadelphia-Union-July-3-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3f94d9e8/Minnesota-United-Vancouver-Whitecaps-FC-July-3-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ca39c1ab/St-Louis-City-San-Jose-Earthquakes-July-3-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d1efe5b4/Real-Salt-Lake-Houston-Dynamo-July-3-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3f6abc7c/Columbus-Crew-Nashville-SC-July-3-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/388a8728/FC-Dallas-Portland-Timbers-July-4-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/bd6ee7c1/Colorado-Rapids-Sporting-Kansas-City-July-4-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0f24e61f/El-Trafico-LA-Galaxy-Los-Angeles-FC-July-4-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8ffa5713/Orlando-City-DC-United-July-6-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/93dc3067/FC-Cincinnati-Inter-Miami-July-6-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c9508ef2/Columbus-Crew-Toronto-FC-July-6-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d6dfedd9/CF-Montreal-Vancouver-Whitecaps-FC-July-6-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/dd691a72/Philadelphia-Union-New-York-Red-Bulls-July-6-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/72bc2e56/Seattle-Sounders-FC-New-England-Revolution-July-6-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d3d791b4/Real-Salt-Lake-Atlanta-United-July-6-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f4174a1e/Austin-FC-New-York-City-FC-July-6-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fb6f2fb8/San-Jose-Earthquakes-Chicago-Fire-July-7-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/04d1f89e/Sporting-Kansas-City-FC-Dallas-July-7-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/17b212c1/Colorado-Rapids-St-Louis-City-July-7-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/51827950/Portland-Timbers-Nashville-SC-July-7-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6008e564/LA-Galaxy-Minnesota-United-July-7-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/27a7f49f/Toronto-FC-Philadelphia-Union-July-13-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6615b63b/New-England-Revolution-Orlando-City-July-13-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/99ce6c56/DC-United-Nashville-SC-July-13-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ab9eac8f/FC-Cincinnati-Charlotte-FC-July-13-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/faa718d1/CF-Montreal-Atlanta-United-July-13-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/31a6fd1a/Portland-Timbers-Real-Salt-Lake-July-13-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/43e4e2ad/San-Jose-Earthquakes-Sporting-Kansas-City-July-13-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/493e8795/Los-Angeles-FC-Columbus-Crew-July-13-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4bc68976/FC-Dallas-LA-Galaxy-July-13-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/7c37f917/Chicago-Fire-New-York-City-FC-July-13-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/80734a17/St-Louis-City-Vancouver-Whitecaps-FC-July-13-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ab60fec8/Colorado-Rapids-New-York-Red-Bulls-July-13-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fcbd4ca6/Austin-FC-Seattle-Sounders-FC-July-13-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/664cf277/Houston-Dynamo-Minnesota-United-July-13-2024-Major-League-Soccer</t>
   </si>
 </sst>
 </file>
@@ -1330,7 +2074,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>210</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3">
@@ -1338,7 +2082,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4">
@@ -1346,7 +2090,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5">
@@ -1354,7 +2098,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>213</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6">
@@ -1362,7 +2106,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>214</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7">
@@ -1370,7 +2114,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>215</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8">
@@ -1378,7 +2122,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>216</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9">
@@ -1386,7 +2130,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>217</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10">
@@ -1394,7 +2138,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>218</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11">
@@ -1402,7 +2146,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>219</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12">
@@ -1410,7 +2154,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>220</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13">
@@ -1418,7 +2162,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>221</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14">
@@ -1426,7 +2170,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>222</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15">
@@ -1434,7 +2178,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>223</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16">
@@ -1442,7 +2186,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>224</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17">
@@ -1450,7 +2194,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>225</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18">
@@ -1458,7 +2202,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>226</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19">
@@ -1466,7 +2210,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>227</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20">
@@ -1474,7 +2218,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>228</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21">
@@ -1482,7 +2226,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>229</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22">
@@ -1490,7 +2234,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>230</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23">
@@ -1498,7 +2242,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>231</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24">
@@ -1506,7 +2250,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>232</v>
+        <v>356</v>
       </c>
     </row>
     <row r="25">
@@ -1514,7 +2258,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>233</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26">
@@ -1522,7 +2266,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>234</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27">
@@ -1530,7 +2274,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>235</v>
+        <v>359</v>
       </c>
     </row>
     <row r="28">
@@ -1538,7 +2282,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>236</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29">
@@ -1546,7 +2290,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>237</v>
+        <v>361</v>
       </c>
     </row>
     <row r="30">
@@ -1554,7 +2298,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>238</v>
+        <v>362</v>
       </c>
     </row>
     <row r="31">
@@ -1562,7 +2306,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>239</v>
+        <v>363</v>
       </c>
     </row>
     <row r="32">
@@ -1570,7 +2314,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>240</v>
+        <v>364</v>
       </c>
     </row>
     <row r="33">
@@ -1578,7 +2322,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>241</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34">
@@ -1586,7 +2330,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>242</v>
+        <v>366</v>
       </c>
     </row>
     <row r="35">
@@ -1594,7 +2338,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>243</v>
+        <v>367</v>
       </c>
     </row>
     <row r="36">
@@ -1602,7 +2346,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>244</v>
+        <v>368</v>
       </c>
     </row>
     <row r="37">
@@ -1610,7 +2354,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>245</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38">
@@ -1618,7 +2362,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>246</v>
+        <v>370</v>
       </c>
     </row>
     <row r="39">
@@ -1626,7 +2370,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>247</v>
+        <v>371</v>
       </c>
     </row>
     <row r="40">
@@ -1634,7 +2378,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>248</v>
+        <v>372</v>
       </c>
     </row>
     <row r="41">
@@ -1642,7 +2386,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>249</v>
+        <v>373</v>
       </c>
     </row>
     <row r="42">
@@ -1650,7 +2394,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>250</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43">
@@ -1658,7 +2402,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>251</v>
+        <v>375</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +2410,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>252</v>
+        <v>376</v>
       </c>
     </row>
     <row r="45">
@@ -1674,7 +2418,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>253</v>
+        <v>377</v>
       </c>
     </row>
     <row r="46">
@@ -1682,7 +2426,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>254</v>
+        <v>378</v>
       </c>
     </row>
     <row r="47">
@@ -1690,7 +2434,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>255</v>
+        <v>379</v>
       </c>
     </row>
     <row r="48">
@@ -1698,7 +2442,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>256</v>
+        <v>380</v>
       </c>
     </row>
     <row r="49">
@@ -1706,7 +2450,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>257</v>
+        <v>381</v>
       </c>
     </row>
     <row r="50">
@@ -1714,7 +2458,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>258</v>
+        <v>382</v>
       </c>
     </row>
     <row r="51">
@@ -1722,7 +2466,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>259</v>
+        <v>383</v>
       </c>
     </row>
     <row r="52">
@@ -1730,7 +2474,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>260</v>
+        <v>384</v>
       </c>
     </row>
     <row r="53">
@@ -1738,7 +2482,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>261</v>
+        <v>385</v>
       </c>
     </row>
     <row r="54">
@@ -1746,7 +2490,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>262</v>
+        <v>386</v>
       </c>
     </row>
     <row r="55">
@@ -1754,7 +2498,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>263</v>
+        <v>387</v>
       </c>
     </row>
     <row r="56">
@@ -1762,7 +2506,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>264</v>
+        <v>388</v>
       </c>
     </row>
     <row r="57">
@@ -1770,7 +2514,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>265</v>
+        <v>389</v>
       </c>
     </row>
     <row r="58">
@@ -1778,7 +2522,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>266</v>
+        <v>390</v>
       </c>
     </row>
     <row r="59">
@@ -1786,7 +2530,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>267</v>
+        <v>391</v>
       </c>
     </row>
     <row r="60">
@@ -1794,7 +2538,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>268</v>
+        <v>392</v>
       </c>
     </row>
     <row r="61">
@@ -1802,7 +2546,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>269</v>
+        <v>393</v>
       </c>
     </row>
     <row r="62">
@@ -1810,7 +2554,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>270</v>
+        <v>394</v>
       </c>
     </row>
     <row r="63">
@@ -1818,7 +2562,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>271</v>
+        <v>395</v>
       </c>
     </row>
     <row r="64">
@@ -1826,7 +2570,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>272</v>
+        <v>396</v>
       </c>
     </row>
     <row r="65">
@@ -1834,7 +2578,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>273</v>
+        <v>397</v>
       </c>
     </row>
     <row r="66">
@@ -1842,7 +2586,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>274</v>
+        <v>398</v>
       </c>
     </row>
     <row r="67">
@@ -1850,7 +2594,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>275</v>
+        <v>399</v>
       </c>
     </row>
     <row r="68">
@@ -1858,7 +2602,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>276</v>
+        <v>400</v>
       </c>
     </row>
     <row r="69">
@@ -1866,7 +2610,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>277</v>
+        <v>401</v>
       </c>
     </row>
     <row r="70">
@@ -1874,7 +2618,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>278</v>
+        <v>402</v>
       </c>
     </row>
     <row r="71">
@@ -1882,7 +2626,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>279</v>
+        <v>403</v>
       </c>
     </row>
     <row r="72">
@@ -1890,7 +2634,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>280</v>
+        <v>404</v>
       </c>
     </row>
     <row r="73">
@@ -1898,7 +2642,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>281</v>
+        <v>405</v>
       </c>
     </row>
     <row r="74">
@@ -1906,7 +2650,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>282</v>
+        <v>406</v>
       </c>
     </row>
     <row r="75">
@@ -1914,7 +2658,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>283</v>
+        <v>407</v>
       </c>
     </row>
     <row r="76">
@@ -1922,7 +2666,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>284</v>
+        <v>408</v>
       </c>
     </row>
     <row r="77">
@@ -1930,7 +2674,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>285</v>
+        <v>409</v>
       </c>
     </row>
     <row r="78">
@@ -1938,7 +2682,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>286</v>
+        <v>410</v>
       </c>
     </row>
     <row r="79">
@@ -1946,7 +2690,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>287</v>
+        <v>411</v>
       </c>
     </row>
     <row r="80">
@@ -1954,7 +2698,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>288</v>
+        <v>412</v>
       </c>
     </row>
     <row r="81">
@@ -1962,7 +2706,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>289</v>
+        <v>413</v>
       </c>
     </row>
     <row r="82">
@@ -1970,7 +2714,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>290</v>
+        <v>414</v>
       </c>
     </row>
     <row r="83">
@@ -1978,7 +2722,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>291</v>
+        <v>415</v>
       </c>
     </row>
     <row r="84">
@@ -1986,7 +2730,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>292</v>
+        <v>416</v>
       </c>
     </row>
     <row r="85">
@@ -1994,7 +2738,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>293</v>
+        <v>417</v>
       </c>
     </row>
     <row r="86">
@@ -2002,7 +2746,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>294</v>
+        <v>418</v>
       </c>
     </row>
     <row r="87">
@@ -2010,7 +2754,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>295</v>
+        <v>419</v>
       </c>
     </row>
     <row r="88">
@@ -2018,7 +2762,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>296</v>
+        <v>420</v>
       </c>
     </row>
     <row r="89">
@@ -2026,7 +2770,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>297</v>
+        <v>421</v>
       </c>
     </row>
     <row r="90">
@@ -2034,7 +2778,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>298</v>
+        <v>422</v>
       </c>
     </row>
     <row r="91">
@@ -2042,7 +2786,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>299</v>
+        <v>423</v>
       </c>
     </row>
     <row r="92">
@@ -2050,7 +2794,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>300</v>
+        <v>424</v>
       </c>
     </row>
     <row r="93">
@@ -2058,7 +2802,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>301</v>
+        <v>425</v>
       </c>
     </row>
     <row r="94">
@@ -2066,7 +2810,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>302</v>
+        <v>426</v>
       </c>
     </row>
     <row r="95">
@@ -2074,7 +2818,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>303</v>
+        <v>427</v>
       </c>
     </row>
     <row r="96">
@@ -2082,7 +2826,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>304</v>
+        <v>428</v>
       </c>
     </row>
     <row r="97">
@@ -2090,7 +2834,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>305</v>
+        <v>429</v>
       </c>
     </row>
     <row r="98">
@@ -2098,7 +2842,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>306</v>
+        <v>430</v>
       </c>
     </row>
     <row r="99">
@@ -2106,7 +2850,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>307</v>
+        <v>431</v>
       </c>
     </row>
     <row r="100">
@@ -2114,7 +2858,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>308</v>
+        <v>432</v>
       </c>
     </row>
     <row r="101">
@@ -2122,7 +2866,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>309</v>
+        <v>433</v>
       </c>
     </row>
     <row r="102">
@@ -2130,7 +2874,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>310</v>
+        <v>434</v>
       </c>
     </row>
     <row r="103">
@@ -2138,7 +2882,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>311</v>
+        <v>435</v>
       </c>
     </row>
     <row r="104">
@@ -2146,7 +2890,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>312</v>
+        <v>436</v>
       </c>
     </row>
     <row r="105">
@@ -2154,7 +2898,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>313</v>
+        <v>437</v>
       </c>
     </row>
     <row r="106">
@@ -2162,7 +2906,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>314</v>
+        <v>438</v>
       </c>
     </row>
     <row r="107">
@@ -2170,7 +2914,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>315</v>
+        <v>439</v>
       </c>
     </row>
     <row r="108">
@@ -2178,7 +2922,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>316</v>
+        <v>440</v>
       </c>
     </row>
     <row r="109">
@@ -2186,7 +2930,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>317</v>
+        <v>441</v>
       </c>
     </row>
     <row r="110">
@@ -2194,7 +2938,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>318</v>
+        <v>442</v>
       </c>
     </row>
     <row r="111">
@@ -2202,7 +2946,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>319</v>
+        <v>443</v>
       </c>
     </row>
     <row r="112">
@@ -2210,7 +2954,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>320</v>
+        <v>444</v>
       </c>
     </row>
     <row r="113">
@@ -2218,7 +2962,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>321</v>
+        <v>445</v>
       </c>
     </row>
     <row r="114">
@@ -2226,7 +2970,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>322</v>
+        <v>446</v>
       </c>
     </row>
     <row r="115">
@@ -2234,7 +2978,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>323</v>
+        <v>447</v>
       </c>
     </row>
     <row r="116">
@@ -2242,7 +2986,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>324</v>
+        <v>448</v>
       </c>
     </row>
     <row r="117">
@@ -2250,7 +2994,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>325</v>
+        <v>449</v>
       </c>
     </row>
     <row r="118">
@@ -2258,7 +3002,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>326</v>
+        <v>450</v>
       </c>
     </row>
     <row r="119">
@@ -2266,7 +3010,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>327</v>
+        <v>451</v>
       </c>
     </row>
     <row r="120">
@@ -2274,7 +3018,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>328</v>
+        <v>452</v>
       </c>
     </row>
     <row r="121">
@@ -2282,7 +3026,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>329</v>
+        <v>453</v>
       </c>
     </row>
     <row r="122">
@@ -2290,7 +3034,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>330</v>
+        <v>454</v>
       </c>
     </row>
     <row r="123">
@@ -2298,7 +3042,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>331</v>
+        <v>455</v>
       </c>
     </row>
     <row r="124">
@@ -2306,7 +3050,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>332</v>
+        <v>456</v>
       </c>
     </row>
     <row r="125">
@@ -2314,7 +3058,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>333</v>
+        <v>457</v>
       </c>
     </row>
     <row r="126">
@@ -2322,7 +3066,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>334</v>
+        <v>458</v>
       </c>
     </row>
     <row r="127">
@@ -2330,7 +3074,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>335</v>
+        <v>459</v>
       </c>
     </row>
     <row r="128">
@@ -2338,7 +3082,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>336</v>
+        <v>460</v>
       </c>
     </row>
     <row r="129">
@@ -2346,7 +3090,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>337</v>
+        <v>461</v>
       </c>
     </row>
     <row r="130">
@@ -2354,7 +3098,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>338</v>
+        <v>462</v>
       </c>
     </row>
     <row r="131">
@@ -2362,7 +3106,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>339</v>
+        <v>463</v>
       </c>
     </row>
     <row r="132">
@@ -2370,7 +3114,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>340</v>
+        <v>464</v>
       </c>
     </row>
     <row r="133">
@@ -2378,7 +3122,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>341</v>
+        <v>465</v>
       </c>
     </row>
     <row r="134">
@@ -2386,7 +3130,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>342</v>
+        <v>466</v>
       </c>
     </row>
     <row r="135">
@@ -2394,7 +3138,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>343</v>
+        <v>467</v>
       </c>
     </row>
     <row r="136">
@@ -2402,7 +3146,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>344</v>
+        <v>468</v>
       </c>
     </row>
     <row r="137">
@@ -2410,7 +3154,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>345</v>
+        <v>469</v>
       </c>
     </row>
     <row r="138">
@@ -2418,7 +3162,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>346</v>
+        <v>470</v>
       </c>
     </row>
     <row r="139">
@@ -2426,7 +3170,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>347</v>
+        <v>471</v>
       </c>
     </row>
     <row r="140">
@@ -2434,7 +3178,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>348</v>
+        <v>472</v>
       </c>
     </row>
     <row r="141">
@@ -2442,7 +3186,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>349</v>
+        <v>473</v>
       </c>
     </row>
     <row r="142">
@@ -2450,7 +3194,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>350</v>
+        <v>474</v>
       </c>
     </row>
     <row r="143">
@@ -2458,7 +3202,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>351</v>
+        <v>475</v>
       </c>
     </row>
     <row r="144">
@@ -2466,7 +3210,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>352</v>
+        <v>476</v>
       </c>
     </row>
     <row r="145">
@@ -2474,7 +3218,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>353</v>
+        <v>477</v>
       </c>
     </row>
     <row r="146">
@@ -2482,7 +3226,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>354</v>
+        <v>478</v>
       </c>
     </row>
     <row r="147">
@@ -2490,7 +3234,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>355</v>
+        <v>479</v>
       </c>
     </row>
     <row r="148">
@@ -2498,7 +3242,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>356</v>
+        <v>480</v>
       </c>
     </row>
     <row r="149">
@@ -2506,7 +3250,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>357</v>
+        <v>481</v>
       </c>
     </row>
     <row r="150">
@@ -2514,7 +3258,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>358</v>
+        <v>482</v>
       </c>
     </row>
     <row r="151">
@@ -2522,7 +3266,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>359</v>
+        <v>483</v>
       </c>
     </row>
     <row r="152">
@@ -2530,7 +3274,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>360</v>
+        <v>484</v>
       </c>
     </row>
     <row r="153">
@@ -2538,7 +3282,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>361</v>
+        <v>485</v>
       </c>
     </row>
     <row r="154">
@@ -2546,7 +3290,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>362</v>
+        <v>486</v>
       </c>
     </row>
     <row r="155">
@@ -2554,7 +3298,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>363</v>
+        <v>487</v>
       </c>
     </row>
     <row r="156">
@@ -2562,7 +3306,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>364</v>
+        <v>488</v>
       </c>
     </row>
     <row r="157">
@@ -2570,7 +3314,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>365</v>
+        <v>489</v>
       </c>
     </row>
     <row r="158">
@@ -2578,7 +3322,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>366</v>
+        <v>490</v>
       </c>
     </row>
     <row r="159">
@@ -2586,7 +3330,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>367</v>
+        <v>491</v>
       </c>
     </row>
     <row r="160">
@@ -2594,7 +3338,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>368</v>
+        <v>492</v>
       </c>
     </row>
     <row r="161">
@@ -2602,7 +3346,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>369</v>
+        <v>493</v>
       </c>
     </row>
     <row r="162">
@@ -2610,7 +3354,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>370</v>
+        <v>494</v>
       </c>
     </row>
     <row r="163">
@@ -2618,7 +3362,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>371</v>
+        <v>495</v>
       </c>
     </row>
     <row r="164">
@@ -2626,7 +3370,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>372</v>
+        <v>496</v>
       </c>
     </row>
     <row r="165">
@@ -2634,7 +3378,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>373</v>
+        <v>497</v>
       </c>
     </row>
     <row r="166">
@@ -2642,7 +3386,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>374</v>
+        <v>498</v>
       </c>
     </row>
     <row r="167">
@@ -2650,7 +3394,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>375</v>
+        <v>499</v>
       </c>
     </row>
     <row r="168">
@@ -2658,7 +3402,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>376</v>
+        <v>500</v>
       </c>
     </row>
     <row r="169">
@@ -2666,7 +3410,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>377</v>
+        <v>501</v>
       </c>
     </row>
     <row r="170">
@@ -2674,7 +3418,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>378</v>
+        <v>502</v>
       </c>
     </row>
     <row r="171">
@@ -2682,7 +3426,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>379</v>
+        <v>503</v>
       </c>
     </row>
     <row r="172">
@@ -2690,7 +3434,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>380</v>
+        <v>504</v>
       </c>
     </row>
     <row r="173">
@@ -2698,7 +3442,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>381</v>
+        <v>505</v>
       </c>
     </row>
     <row r="174">
@@ -2706,7 +3450,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>382</v>
+        <v>506</v>
       </c>
     </row>
     <row r="175">
@@ -2714,7 +3458,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>383</v>
+        <v>507</v>
       </c>
     </row>
     <row r="176">
@@ -2722,7 +3466,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>384</v>
+        <v>508</v>
       </c>
     </row>
     <row r="177">
@@ -2730,7 +3474,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>385</v>
+        <v>509</v>
       </c>
     </row>
     <row r="178">
@@ -2738,7 +3482,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>386</v>
+        <v>510</v>
       </c>
     </row>
     <row r="179">
@@ -2746,7 +3490,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>387</v>
+        <v>511</v>
       </c>
     </row>
     <row r="180">
@@ -2754,7 +3498,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>388</v>
+        <v>512</v>
       </c>
     </row>
     <row r="181">
@@ -2762,7 +3506,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>389</v>
+        <v>513</v>
       </c>
     </row>
     <row r="182">
@@ -2770,7 +3514,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>390</v>
+        <v>514</v>
       </c>
     </row>
     <row r="183">
@@ -2778,7 +3522,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>391</v>
+        <v>515</v>
       </c>
     </row>
     <row r="184">
@@ -2786,7 +3530,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>392</v>
+        <v>516</v>
       </c>
     </row>
     <row r="185">
@@ -2794,7 +3538,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>393</v>
+        <v>517</v>
       </c>
     </row>
     <row r="186">
@@ -2802,7 +3546,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>394</v>
+        <v>518</v>
       </c>
     </row>
     <row r="187">
@@ -2810,7 +3554,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>395</v>
+        <v>519</v>
       </c>
     </row>
     <row r="188">
@@ -2818,7 +3562,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>396</v>
+        <v>520</v>
       </c>
     </row>
     <row r="189">
@@ -2826,7 +3570,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>397</v>
+        <v>521</v>
       </c>
     </row>
     <row r="190">
@@ -2834,7 +3578,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>398</v>
+        <v>522</v>
       </c>
     </row>
     <row r="191">
@@ -2842,7 +3586,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>399</v>
+        <v>523</v>
       </c>
     </row>
     <row r="192">
@@ -2850,7 +3594,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>400</v>
+        <v>524</v>
       </c>
     </row>
     <row r="193">
@@ -2858,7 +3602,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>401</v>
+        <v>525</v>
       </c>
     </row>
     <row r="194">
@@ -2866,7 +3610,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>402</v>
+        <v>526</v>
       </c>
     </row>
     <row r="195">
@@ -2874,7 +3618,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>403</v>
+        <v>527</v>
       </c>
     </row>
     <row r="196">
@@ -2882,7 +3626,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>404</v>
+        <v>528</v>
       </c>
     </row>
     <row r="197">
@@ -2890,7 +3634,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>405</v>
+        <v>529</v>
       </c>
     </row>
     <row r="198">
@@ -2898,7 +3642,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>406</v>
+        <v>530</v>
       </c>
     </row>
     <row r="199">
@@ -2906,7 +3650,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>407</v>
+        <v>531</v>
       </c>
     </row>
     <row r="200">
@@ -2914,7 +3658,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>408</v>
+        <v>532</v>
       </c>
     </row>
     <row r="201">
@@ -2922,7 +3666,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>409</v>
+        <v>533</v>
       </c>
     </row>
     <row r="202">
@@ -2930,7 +3674,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>410</v>
+        <v>534</v>
       </c>
     </row>
     <row r="203">
@@ -2938,7 +3682,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>411</v>
+        <v>535</v>
       </c>
     </row>
     <row r="204">
@@ -2946,7 +3690,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>412</v>
+        <v>536</v>
       </c>
     </row>
     <row r="205">
@@ -2954,7 +3698,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>413</v>
+        <v>537</v>
       </c>
     </row>
     <row r="206">
@@ -2962,7 +3706,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>414</v>
+        <v>538</v>
       </c>
     </row>
     <row r="207">
@@ -2970,7 +3714,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>415</v>
+        <v>539</v>
       </c>
     </row>
     <row r="208">
@@ -2978,7 +3722,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>416</v>
+        <v>540</v>
       </c>
     </row>
     <row r="209">
@@ -2986,7 +3730,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>417</v>
+        <v>541</v>
       </c>
     </row>
     <row r="210">
@@ -2994,7 +3738,999 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>418</v>
+        <v>542</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>262</v>
+      </c>
+      <c r="B263" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>263</v>
+      </c>
+      <c r="B264" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>264</v>
+      </c>
+      <c r="B265" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>265</v>
+      </c>
+      <c r="B266" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>266</v>
+      </c>
+      <c r="B267" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>267</v>
+      </c>
+      <c r="B268" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>268</v>
+      </c>
+      <c r="B269" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>269</v>
+      </c>
+      <c r="B270" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>270</v>
+      </c>
+      <c r="B271" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>271</v>
+      </c>
+      <c r="B272" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>272</v>
+      </c>
+      <c r="B273" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>273</v>
+      </c>
+      <c r="B274" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>274</v>
+      </c>
+      <c r="B275" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>275</v>
+      </c>
+      <c r="B276" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>276</v>
+      </c>
+      <c r="B277" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>277</v>
+      </c>
+      <c r="B278" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>278</v>
+      </c>
+      <c r="B279" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>279</v>
+      </c>
+      <c r="B280" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>280</v>
+      </c>
+      <c r="B281" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>281</v>
+      </c>
+      <c r="B282" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>282</v>
+      </c>
+      <c r="B283" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>283</v>
+      </c>
+      <c r="B284" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>284</v>
+      </c>
+      <c r="B285" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>285</v>
+      </c>
+      <c r="B286" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>286</v>
+      </c>
+      <c r="B287" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>287</v>
+      </c>
+      <c r="B288" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>288</v>
+      </c>
+      <c r="B289" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>289</v>
+      </c>
+      <c r="B290" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>290</v>
+      </c>
+      <c r="B291" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>291</v>
+      </c>
+      <c r="B292" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>292</v>
+      </c>
+      <c r="B293" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>293</v>
+      </c>
+      <c r="B294" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>294</v>
+      </c>
+      <c r="B295" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>295</v>
+      </c>
+      <c r="B296" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>296</v>
+      </c>
+      <c r="B297" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>297</v>
+      </c>
+      <c r="B298" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>298</v>
+      </c>
+      <c r="B299" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>299</v>
+      </c>
+      <c r="B300" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>300</v>
+      </c>
+      <c r="B301" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>301</v>
+      </c>
+      <c r="B302" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>302</v>
+      </c>
+      <c r="B303" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>303</v>
+      </c>
+      <c r="B304" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>304</v>
+      </c>
+      <c r="B305" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>305</v>
+      </c>
+      <c r="B306" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>306</v>
+      </c>
+      <c r="B307" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>307</v>
+      </c>
+      <c r="B308" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>308</v>
+      </c>
+      <c r="B309" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>309</v>
+      </c>
+      <c r="B310" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>310</v>
+      </c>
+      <c r="B311" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>311</v>
+      </c>
+      <c r="B312" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>312</v>
+      </c>
+      <c r="B313" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>313</v>
+      </c>
+      <c r="B314" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>314</v>
+      </c>
+      <c r="B315" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>315</v>
+      </c>
+      <c r="B316" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>316</v>
+      </c>
+      <c r="B317" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>317</v>
+      </c>
+      <c r="B318" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>318</v>
+      </c>
+      <c r="B319" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>319</v>
+      </c>
+      <c r="B320" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>320</v>
+      </c>
+      <c r="B321" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>321</v>
+      </c>
+      <c r="B322" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>322</v>
+      </c>
+      <c r="B323" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>323</v>
+      </c>
+      <c r="B324" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>324</v>
+      </c>
+      <c r="B325" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>325</v>
+      </c>
+      <c r="B326" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>326</v>
+      </c>
+      <c r="B327" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>327</v>
+      </c>
+      <c r="B328" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>328</v>
+      </c>
+      <c r="B329" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>329</v>
+      </c>
+      <c r="B330" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>330</v>
+      </c>
+      <c r="B331" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>331</v>
+      </c>
+      <c r="B332" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>332</v>
+      </c>
+      <c r="B333" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>333</v>
+      </c>
+      <c r="B334" t="s">
+        <v>666</v>
       </c>
     </row>
   </sheetData>

--- a/mls_urls.xlsx
+++ b/mls_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="723">
   <si>
     <t>x</t>
   </si>
@@ -1016,6 +1016,90 @@
     <t>333</t>
   </si>
   <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>337</t>
+  </si>
+  <si>
+    <t>338</t>
+  </si>
+  <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>341</t>
+  </si>
+  <si>
+    <t>342</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>344</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>346</t>
+  </si>
+  <si>
+    <t>347</t>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>349</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
+    <t>353</t>
+  </si>
+  <si>
+    <t>354</t>
+  </si>
+  <si>
+    <t>355</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>358</t>
+  </si>
+  <si>
+    <t>359</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>361</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/6b8eefb5/Inter-Miami-Real-Salt-Lake-February-21-2024-Major-League-Soccer</t>
   </si>
   <si>
@@ -2013,6 +2097,90 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/664cf277/Houston-Dynamo-Minnesota-United-July-13-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/23b76cb4/Atlanta-United-New-York-City-FC-July-17-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/60f17870/Philadelphia-Union-New-England-Revolution-July-17-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b4944b94/Columbus-Crew-Charlotte-FC-July-17-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b5f24684/New-York-Red-Bulls-CF-Montreal-July-17-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e9eb6b8b/Inter-Miami-Toronto-FC-July-17-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f4964b7c/FC-Cincinnati-Chicago-Fire-July-17-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3755ad8a/Seattle-Sounders-FC-St-Louis-City-July-17-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4ab1add3/Nashville-SC-Orlando-City-July-17-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6a53bdca/Vancouver-Whitecaps-FC-Sporting-Kansas-City-July-17-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/cb449b4c/FC-Dallas-Austin-FC-July-17-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e2bbd69d/Minnesota-United-DC-United-July-17-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f10780b4/LA-Galaxy-Colorado-Rapids-July-17-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fd6a2d43/San-Jose-Earthquakes-Houston-Dynamo-July-17-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c7b119b8/Los-Angeles-FC-Real-Salt-Lake-July-17-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0b92d25c/Inter-Miami-Chicago-Fire-July-20-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6745eb76/Philadelphia-Union-Nashville-SC-July-20-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/af5d68bd/New-England-Revolution-FC-Dallas-July-20-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c6c47bd5/CF-Montreal-Toronto-FC-July-20-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/d22e2ea6/New-York-Red-Bulls-FC-Cincinnati-July-20-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/dc671d08/Orlando-City-New-York-City-FC-July-20-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e9c95c54/Atlanta-United-Columbus-Crew-July-20-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/1860ab70/Austin-FC-Charlotte-FC-July-20-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/3479c662/Sporting-Kansas-City-St-Louis-City-July-20-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/43d2d102/Vancouver-Whitecaps-FC-Houston-Dynamo-July-20-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/67f48250/Minnesota-United-San-Jose-Earthquakes-July-20-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c065ff91/Colorado-Rapids-Real-Salt-Lake-July-20-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/ce8fd7d6/Seattle-Sounders-FC-Los-Angeles-FC-July-20-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f6e88d1c/LA-Galaxy-Portland-Timbers-July-20-2024-Major-League-Soccer</t>
   </si>
 </sst>
 </file>
@@ -2074,7 +2242,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3">
@@ -2082,7 +2250,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4">
@@ -2090,7 +2258,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5">
@@ -2098,7 +2266,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6">
@@ -2106,7 +2274,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7">
@@ -2114,7 +2282,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8">
@@ -2122,7 +2290,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9">
@@ -2130,7 +2298,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10">
@@ -2138,7 +2306,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>342</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11">
@@ -2146,7 +2314,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>343</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12">
@@ -2154,7 +2322,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13">
@@ -2162,7 +2330,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14">
@@ -2170,7 +2338,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15">
@@ -2178,7 +2346,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16">
@@ -2186,7 +2354,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17">
@@ -2194,7 +2362,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18">
@@ -2202,7 +2370,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19">
@@ -2210,7 +2378,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>351</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20">
@@ -2218,7 +2386,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21">
@@ -2226,7 +2394,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>353</v>
+        <v>381</v>
       </c>
     </row>
     <row r="22">
@@ -2234,7 +2402,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23">
@@ -2242,7 +2410,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>355</v>
+        <v>383</v>
       </c>
     </row>
     <row r="24">
@@ -2250,7 +2418,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>356</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25">
@@ -2258,7 +2426,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>357</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26">
@@ -2266,7 +2434,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
     </row>
     <row r="27">
@@ -2274,7 +2442,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
     </row>
     <row r="28">
@@ -2282,7 +2450,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>360</v>
+        <v>388</v>
       </c>
     </row>
     <row r="29">
@@ -2290,7 +2458,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
     </row>
     <row r="30">
@@ -2298,7 +2466,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>362</v>
+        <v>390</v>
       </c>
     </row>
     <row r="31">
@@ -2306,7 +2474,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>363</v>
+        <v>391</v>
       </c>
     </row>
     <row r="32">
@@ -2314,7 +2482,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>364</v>
+        <v>392</v>
       </c>
     </row>
     <row r="33">
@@ -2322,7 +2490,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>365</v>
+        <v>393</v>
       </c>
     </row>
     <row r="34">
@@ -2330,7 +2498,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>366</v>
+        <v>394</v>
       </c>
     </row>
     <row r="35">
@@ -2338,7 +2506,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
     </row>
     <row r="36">
@@ -2346,7 +2514,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>368</v>
+        <v>396</v>
       </c>
     </row>
     <row r="37">
@@ -2354,7 +2522,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>369</v>
+        <v>397</v>
       </c>
     </row>
     <row r="38">
@@ -2362,7 +2530,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>370</v>
+        <v>398</v>
       </c>
     </row>
     <row r="39">
@@ -2370,7 +2538,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>371</v>
+        <v>399</v>
       </c>
     </row>
     <row r="40">
@@ -2378,7 +2546,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>372</v>
+        <v>400</v>
       </c>
     </row>
     <row r="41">
@@ -2386,7 +2554,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>373</v>
+        <v>401</v>
       </c>
     </row>
     <row r="42">
@@ -2394,7 +2562,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>374</v>
+        <v>402</v>
       </c>
     </row>
     <row r="43">
@@ -2402,7 +2570,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>375</v>
+        <v>403</v>
       </c>
     </row>
     <row r="44">
@@ -2410,7 +2578,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>376</v>
+        <v>404</v>
       </c>
     </row>
     <row r="45">
@@ -2418,7 +2586,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>377</v>
+        <v>405</v>
       </c>
     </row>
     <row r="46">
@@ -2426,7 +2594,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>378</v>
+        <v>406</v>
       </c>
     </row>
     <row r="47">
@@ -2434,7 +2602,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>379</v>
+        <v>407</v>
       </c>
     </row>
     <row r="48">
@@ -2442,7 +2610,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>380</v>
+        <v>408</v>
       </c>
     </row>
     <row r="49">
@@ -2450,7 +2618,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>381</v>
+        <v>409</v>
       </c>
     </row>
     <row r="50">
@@ -2458,7 +2626,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
     </row>
     <row r="51">
@@ -2466,7 +2634,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>383</v>
+        <v>411</v>
       </c>
     </row>
     <row r="52">
@@ -2474,7 +2642,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>384</v>
+        <v>412</v>
       </c>
     </row>
     <row r="53">
@@ -2482,7 +2650,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>385</v>
+        <v>413</v>
       </c>
     </row>
     <row r="54">
@@ -2490,7 +2658,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>386</v>
+        <v>414</v>
       </c>
     </row>
     <row r="55">
@@ -2498,7 +2666,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>387</v>
+        <v>415</v>
       </c>
     </row>
     <row r="56">
@@ -2506,7 +2674,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>388</v>
+        <v>416</v>
       </c>
     </row>
     <row r="57">
@@ -2514,7 +2682,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
     </row>
     <row r="58">
@@ -2522,7 +2690,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>390</v>
+        <v>418</v>
       </c>
     </row>
     <row r="59">
@@ -2530,7 +2698,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>391</v>
+        <v>419</v>
       </c>
     </row>
     <row r="60">
@@ -2538,7 +2706,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
     <row r="61">
@@ -2546,7 +2714,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
     </row>
     <row r="62">
@@ -2554,7 +2722,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>394</v>
+        <v>422</v>
       </c>
     </row>
     <row r="63">
@@ -2562,7 +2730,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>395</v>
+        <v>423</v>
       </c>
     </row>
     <row r="64">
@@ -2570,7 +2738,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>396</v>
+        <v>424</v>
       </c>
     </row>
     <row r="65">
@@ -2578,7 +2746,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>397</v>
+        <v>425</v>
       </c>
     </row>
     <row r="66">
@@ -2586,7 +2754,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>398</v>
+        <v>426</v>
       </c>
     </row>
     <row r="67">
@@ -2594,7 +2762,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>399</v>
+        <v>427</v>
       </c>
     </row>
     <row r="68">
@@ -2602,7 +2770,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>400</v>
+        <v>428</v>
       </c>
     </row>
     <row r="69">
@@ -2610,7 +2778,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>401</v>
+        <v>429</v>
       </c>
     </row>
     <row r="70">
@@ -2618,7 +2786,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>402</v>
+        <v>430</v>
       </c>
     </row>
     <row r="71">
@@ -2626,7 +2794,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>403</v>
+        <v>431</v>
       </c>
     </row>
     <row r="72">
@@ -2634,7 +2802,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>404</v>
+        <v>432</v>
       </c>
     </row>
     <row r="73">
@@ -2642,7 +2810,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>405</v>
+        <v>433</v>
       </c>
     </row>
     <row r="74">
@@ -2650,7 +2818,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>406</v>
+        <v>434</v>
       </c>
     </row>
     <row r="75">
@@ -2658,7 +2826,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>407</v>
+        <v>435</v>
       </c>
     </row>
     <row r="76">
@@ -2666,7 +2834,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>408</v>
+        <v>436</v>
       </c>
     </row>
     <row r="77">
@@ -2674,7 +2842,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>409</v>
+        <v>437</v>
       </c>
     </row>
     <row r="78">
@@ -2682,7 +2850,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>410</v>
+        <v>438</v>
       </c>
     </row>
     <row r="79">
@@ -2690,7 +2858,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>411</v>
+        <v>439</v>
       </c>
     </row>
     <row r="80">
@@ -2698,7 +2866,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>412</v>
+        <v>440</v>
       </c>
     </row>
     <row r="81">
@@ -2706,7 +2874,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>413</v>
+        <v>441</v>
       </c>
     </row>
     <row r="82">
@@ -2714,7 +2882,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>414</v>
+        <v>442</v>
       </c>
     </row>
     <row r="83">
@@ -2722,7 +2890,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>415</v>
+        <v>443</v>
       </c>
     </row>
     <row r="84">
@@ -2730,7 +2898,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>416</v>
+        <v>444</v>
       </c>
     </row>
     <row r="85">
@@ -2738,7 +2906,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>417</v>
+        <v>445</v>
       </c>
     </row>
     <row r="86">
@@ -2746,7 +2914,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>418</v>
+        <v>446</v>
       </c>
     </row>
     <row r="87">
@@ -2754,7 +2922,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
     </row>
     <row r="88">
@@ -2762,7 +2930,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
     </row>
     <row r="89">
@@ -2770,7 +2938,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
     </row>
     <row r="90">
@@ -2778,7 +2946,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>422</v>
+        <v>450</v>
       </c>
     </row>
     <row r="91">
@@ -2786,7 +2954,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
     </row>
     <row r="92">
@@ -2794,7 +2962,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>424</v>
+        <v>452</v>
       </c>
     </row>
     <row r="93">
@@ -2802,7 +2970,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
     </row>
     <row r="94">
@@ -2810,7 +2978,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>426</v>
+        <v>454</v>
       </c>
     </row>
     <row r="95">
@@ -2818,7 +2986,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>427</v>
+        <v>455</v>
       </c>
     </row>
     <row r="96">
@@ -2826,7 +2994,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
     </row>
     <row r="97">
@@ -2834,7 +3002,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>429</v>
+        <v>457</v>
       </c>
     </row>
     <row r="98">
@@ -2842,7 +3010,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
     </row>
     <row r="99">
@@ -2850,7 +3018,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>431</v>
+        <v>459</v>
       </c>
     </row>
     <row r="100">
@@ -2858,7 +3026,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>432</v>
+        <v>460</v>
       </c>
     </row>
     <row r="101">
@@ -2866,7 +3034,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>433</v>
+        <v>461</v>
       </c>
     </row>
     <row r="102">
@@ -2874,7 +3042,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>434</v>
+        <v>462</v>
       </c>
     </row>
     <row r="103">
@@ -2882,7 +3050,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>435</v>
+        <v>463</v>
       </c>
     </row>
     <row r="104">
@@ -2890,7 +3058,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>436</v>
+        <v>464</v>
       </c>
     </row>
     <row r="105">
@@ -2898,7 +3066,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>437</v>
+        <v>465</v>
       </c>
     </row>
     <row r="106">
@@ -2906,7 +3074,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>438</v>
+        <v>466</v>
       </c>
     </row>
     <row r="107">
@@ -2914,7 +3082,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>439</v>
+        <v>467</v>
       </c>
     </row>
     <row r="108">
@@ -2922,7 +3090,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>440</v>
+        <v>468</v>
       </c>
     </row>
     <row r="109">
@@ -2930,7 +3098,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>441</v>
+        <v>469</v>
       </c>
     </row>
     <row r="110">
@@ -2938,7 +3106,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>442</v>
+        <v>470</v>
       </c>
     </row>
     <row r="111">
@@ -2946,7 +3114,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>443</v>
+        <v>471</v>
       </c>
     </row>
     <row r="112">
@@ -2954,7 +3122,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>444</v>
+        <v>472</v>
       </c>
     </row>
     <row r="113">
@@ -2962,7 +3130,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>445</v>
+        <v>473</v>
       </c>
     </row>
     <row r="114">
@@ -2970,7 +3138,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>446</v>
+        <v>474</v>
       </c>
     </row>
     <row r="115">
@@ -2978,7 +3146,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>447</v>
+        <v>475</v>
       </c>
     </row>
     <row r="116">
@@ -2986,7 +3154,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>448</v>
+        <v>476</v>
       </c>
     </row>
     <row r="117">
@@ -2994,7 +3162,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>449</v>
+        <v>477</v>
       </c>
     </row>
     <row r="118">
@@ -3002,7 +3170,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>450</v>
+        <v>478</v>
       </c>
     </row>
     <row r="119">
@@ -3010,7 +3178,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>451</v>
+        <v>479</v>
       </c>
     </row>
     <row r="120">
@@ -3018,7 +3186,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>452</v>
+        <v>480</v>
       </c>
     </row>
     <row r="121">
@@ -3026,7 +3194,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>453</v>
+        <v>481</v>
       </c>
     </row>
     <row r="122">
@@ -3034,7 +3202,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>454</v>
+        <v>482</v>
       </c>
     </row>
     <row r="123">
@@ -3042,7 +3210,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>455</v>
+        <v>483</v>
       </c>
     </row>
     <row r="124">
@@ -3050,7 +3218,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>456</v>
+        <v>484</v>
       </c>
     </row>
     <row r="125">
@@ -3058,7 +3226,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>457</v>
+        <v>485</v>
       </c>
     </row>
     <row r="126">
@@ -3066,7 +3234,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>458</v>
+        <v>486</v>
       </c>
     </row>
     <row r="127">
@@ -3074,7 +3242,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>459</v>
+        <v>487</v>
       </c>
     </row>
     <row r="128">
@@ -3082,7 +3250,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>460</v>
+        <v>488</v>
       </c>
     </row>
     <row r="129">
@@ -3090,7 +3258,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>461</v>
+        <v>489</v>
       </c>
     </row>
     <row r="130">
@@ -3098,7 +3266,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>462</v>
+        <v>490</v>
       </c>
     </row>
     <row r="131">
@@ -3106,7 +3274,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>463</v>
+        <v>491</v>
       </c>
     </row>
     <row r="132">
@@ -3114,7 +3282,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>464</v>
+        <v>492</v>
       </c>
     </row>
     <row r="133">
@@ -3122,7 +3290,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>465</v>
+        <v>493</v>
       </c>
     </row>
     <row r="134">
@@ -3130,7 +3298,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>466</v>
+        <v>494</v>
       </c>
     </row>
     <row r="135">
@@ -3138,7 +3306,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>467</v>
+        <v>495</v>
       </c>
     </row>
     <row r="136">
@@ -3146,7 +3314,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>468</v>
+        <v>496</v>
       </c>
     </row>
     <row r="137">
@@ -3154,7 +3322,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>469</v>
+        <v>497</v>
       </c>
     </row>
     <row r="138">
@@ -3162,7 +3330,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>470</v>
+        <v>498</v>
       </c>
     </row>
     <row r="139">
@@ -3170,7 +3338,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>471</v>
+        <v>499</v>
       </c>
     </row>
     <row r="140">
@@ -3178,7 +3346,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>472</v>
+        <v>500</v>
       </c>
     </row>
     <row r="141">
@@ -3186,7 +3354,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>473</v>
+        <v>501</v>
       </c>
     </row>
     <row r="142">
@@ -3194,7 +3362,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>474</v>
+        <v>502</v>
       </c>
     </row>
     <row r="143">
@@ -3202,7 +3370,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>475</v>
+        <v>503</v>
       </c>
     </row>
     <row r="144">
@@ -3210,7 +3378,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>476</v>
+        <v>504</v>
       </c>
     </row>
     <row r="145">
@@ -3218,7 +3386,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>477</v>
+        <v>505</v>
       </c>
     </row>
     <row r="146">
@@ -3226,7 +3394,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>478</v>
+        <v>506</v>
       </c>
     </row>
     <row r="147">
@@ -3234,7 +3402,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>479</v>
+        <v>507</v>
       </c>
     </row>
     <row r="148">
@@ -3242,7 +3410,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>480</v>
+        <v>508</v>
       </c>
     </row>
     <row r="149">
@@ -3250,7 +3418,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>481</v>
+        <v>509</v>
       </c>
     </row>
     <row r="150">
@@ -3258,7 +3426,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>482</v>
+        <v>510</v>
       </c>
     </row>
     <row r="151">
@@ -3266,7 +3434,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>483</v>
+        <v>511</v>
       </c>
     </row>
     <row r="152">
@@ -3274,7 +3442,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>484</v>
+        <v>512</v>
       </c>
     </row>
     <row r="153">
@@ -3282,7 +3450,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>485</v>
+        <v>513</v>
       </c>
     </row>
     <row r="154">
@@ -3290,7 +3458,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>486</v>
+        <v>514</v>
       </c>
     </row>
     <row r="155">
@@ -3298,7 +3466,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>487</v>
+        <v>515</v>
       </c>
     </row>
     <row r="156">
@@ -3306,7 +3474,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>488</v>
+        <v>516</v>
       </c>
     </row>
     <row r="157">
@@ -3314,7 +3482,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
     </row>
     <row r="158">
@@ -3322,7 +3490,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>490</v>
+        <v>518</v>
       </c>
     </row>
     <row r="159">
@@ -3330,7 +3498,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>491</v>
+        <v>519</v>
       </c>
     </row>
     <row r="160">
@@ -3338,7 +3506,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>492</v>
+        <v>520</v>
       </c>
     </row>
     <row r="161">
@@ -3346,7 +3514,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>493</v>
+        <v>521</v>
       </c>
     </row>
     <row r="162">
@@ -3354,7 +3522,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
     </row>
     <row r="163">
@@ -3362,7 +3530,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>495</v>
+        <v>523</v>
       </c>
     </row>
     <row r="164">
@@ -3370,7 +3538,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>496</v>
+        <v>524</v>
       </c>
     </row>
     <row r="165">
@@ -3378,7 +3546,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>497</v>
+        <v>525</v>
       </c>
     </row>
     <row r="166">
@@ -3386,7 +3554,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>498</v>
+        <v>526</v>
       </c>
     </row>
     <row r="167">
@@ -3394,7 +3562,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>499</v>
+        <v>527</v>
       </c>
     </row>
     <row r="168">
@@ -3402,7 +3570,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>500</v>
+        <v>528</v>
       </c>
     </row>
     <row r="169">
@@ -3410,7 +3578,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>501</v>
+        <v>529</v>
       </c>
     </row>
     <row r="170">
@@ -3418,7 +3586,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>502</v>
+        <v>530</v>
       </c>
     </row>
     <row r="171">
@@ -3426,7 +3594,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>503</v>
+        <v>531</v>
       </c>
     </row>
     <row r="172">
@@ -3434,7 +3602,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>504</v>
+        <v>532</v>
       </c>
     </row>
     <row r="173">
@@ -3442,7 +3610,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>505</v>
+        <v>533</v>
       </c>
     </row>
     <row r="174">
@@ -3450,7 +3618,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>506</v>
+        <v>534</v>
       </c>
     </row>
     <row r="175">
@@ -3458,7 +3626,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>507</v>
+        <v>535</v>
       </c>
     </row>
     <row r="176">
@@ -3466,7 +3634,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>508</v>
+        <v>536</v>
       </c>
     </row>
     <row r="177">
@@ -3474,7 +3642,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>509</v>
+        <v>537</v>
       </c>
     </row>
     <row r="178">
@@ -3482,7 +3650,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>510</v>
+        <v>538</v>
       </c>
     </row>
     <row r="179">
@@ -3490,7 +3658,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>511</v>
+        <v>539</v>
       </c>
     </row>
     <row r="180">
@@ -3498,7 +3666,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>512</v>
+        <v>540</v>
       </c>
     </row>
     <row r="181">
@@ -3506,7 +3674,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>513</v>
+        <v>541</v>
       </c>
     </row>
     <row r="182">
@@ -3514,7 +3682,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>514</v>
+        <v>542</v>
       </c>
     </row>
     <row r="183">
@@ -3522,7 +3690,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>515</v>
+        <v>543</v>
       </c>
     </row>
     <row r="184">
@@ -3530,7 +3698,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>516</v>
+        <v>544</v>
       </c>
     </row>
     <row r="185">
@@ -3538,7 +3706,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>517</v>
+        <v>545</v>
       </c>
     </row>
     <row r="186">
@@ -3546,7 +3714,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>518</v>
+        <v>546</v>
       </c>
     </row>
     <row r="187">
@@ -3554,7 +3722,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>519</v>
+        <v>547</v>
       </c>
     </row>
     <row r="188">
@@ -3562,7 +3730,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>520</v>
+        <v>548</v>
       </c>
     </row>
     <row r="189">
@@ -3570,7 +3738,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>521</v>
+        <v>549</v>
       </c>
     </row>
     <row r="190">
@@ -3578,7 +3746,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>522</v>
+        <v>550</v>
       </c>
     </row>
     <row r="191">
@@ -3586,7 +3754,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>523</v>
+        <v>551</v>
       </c>
     </row>
     <row r="192">
@@ -3594,7 +3762,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>524</v>
+        <v>552</v>
       </c>
     </row>
     <row r="193">
@@ -3602,7 +3770,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>525</v>
+        <v>553</v>
       </c>
     </row>
     <row r="194">
@@ -3610,7 +3778,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>526</v>
+        <v>554</v>
       </c>
     </row>
     <row r="195">
@@ -3618,7 +3786,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>527</v>
+        <v>555</v>
       </c>
     </row>
     <row r="196">
@@ -3626,7 +3794,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>528</v>
+        <v>556</v>
       </c>
     </row>
     <row r="197">
@@ -3634,7 +3802,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>529</v>
+        <v>557</v>
       </c>
     </row>
     <row r="198">
@@ -3642,7 +3810,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>530</v>
+        <v>558</v>
       </c>
     </row>
     <row r="199">
@@ -3650,7 +3818,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>531</v>
+        <v>559</v>
       </c>
     </row>
     <row r="200">
@@ -3658,7 +3826,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>532</v>
+        <v>560</v>
       </c>
     </row>
     <row r="201">
@@ -3666,7 +3834,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>533</v>
+        <v>561</v>
       </c>
     </row>
     <row r="202">
@@ -3674,7 +3842,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>534</v>
+        <v>562</v>
       </c>
     </row>
     <row r="203">
@@ -3682,7 +3850,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>535</v>
+        <v>563</v>
       </c>
     </row>
     <row r="204">
@@ -3690,7 +3858,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>536</v>
+        <v>564</v>
       </c>
     </row>
     <row r="205">
@@ -3698,7 +3866,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>537</v>
+        <v>565</v>
       </c>
     </row>
     <row r="206">
@@ -3706,7 +3874,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>538</v>
+        <v>566</v>
       </c>
     </row>
     <row r="207">
@@ -3714,7 +3882,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>539</v>
+        <v>567</v>
       </c>
     </row>
     <row r="208">
@@ -3722,7 +3890,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>540</v>
+        <v>568</v>
       </c>
     </row>
     <row r="209">
@@ -3730,7 +3898,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>541</v>
+        <v>569</v>
       </c>
     </row>
     <row r="210">
@@ -3738,7 +3906,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>542</v>
+        <v>570</v>
       </c>
     </row>
     <row r="211">
@@ -3746,7 +3914,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>543</v>
+        <v>571</v>
       </c>
     </row>
     <row r="212">
@@ -3754,7 +3922,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>544</v>
+        <v>572</v>
       </c>
     </row>
     <row r="213">
@@ -3762,7 +3930,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>545</v>
+        <v>573</v>
       </c>
     </row>
     <row r="214">
@@ -3770,7 +3938,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>546</v>
+        <v>574</v>
       </c>
     </row>
     <row r="215">
@@ -3778,7 +3946,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
     </row>
     <row r="216">
@@ -3786,7 +3954,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>548</v>
+        <v>576</v>
       </c>
     </row>
     <row r="217">
@@ -3794,7 +3962,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>549</v>
+        <v>577</v>
       </c>
     </row>
     <row r="218">
@@ -3802,7 +3970,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>550</v>
+        <v>578</v>
       </c>
     </row>
     <row r="219">
@@ -3810,7 +3978,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>551</v>
+        <v>579</v>
       </c>
     </row>
     <row r="220">
@@ -3818,7 +3986,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>552</v>
+        <v>580</v>
       </c>
     </row>
     <row r="221">
@@ -3826,7 +3994,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>553</v>
+        <v>581</v>
       </c>
     </row>
     <row r="222">
@@ -3834,7 +4002,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>554</v>
+        <v>582</v>
       </c>
     </row>
     <row r="223">
@@ -3842,7 +4010,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>555</v>
+        <v>583</v>
       </c>
     </row>
     <row r="224">
@@ -3850,7 +4018,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>556</v>
+        <v>584</v>
       </c>
     </row>
     <row r="225">
@@ -3858,7 +4026,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>557</v>
+        <v>585</v>
       </c>
     </row>
     <row r="226">
@@ -3866,7 +4034,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>558</v>
+        <v>586</v>
       </c>
     </row>
     <row r="227">
@@ -3874,7 +4042,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>559</v>
+        <v>587</v>
       </c>
     </row>
     <row r="228">
@@ -3882,7 +4050,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>560</v>
+        <v>588</v>
       </c>
     </row>
     <row r="229">
@@ -3890,7 +4058,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>561</v>
+        <v>589</v>
       </c>
     </row>
     <row r="230">
@@ -3898,7 +4066,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>562</v>
+        <v>590</v>
       </c>
     </row>
     <row r="231">
@@ -3906,7 +4074,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>563</v>
+        <v>591</v>
       </c>
     </row>
     <row r="232">
@@ -3914,7 +4082,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>564</v>
+        <v>592</v>
       </c>
     </row>
     <row r="233">
@@ -3922,7 +4090,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>565</v>
+        <v>593</v>
       </c>
     </row>
     <row r="234">
@@ -3930,7 +4098,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>566</v>
+        <v>594</v>
       </c>
     </row>
     <row r="235">
@@ -3938,7 +4106,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
     </row>
     <row r="236">
@@ -3946,7 +4114,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>568</v>
+        <v>596</v>
       </c>
     </row>
     <row r="237">
@@ -3954,7 +4122,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>569</v>
+        <v>597</v>
       </c>
     </row>
     <row r="238">
@@ -3962,7 +4130,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>570</v>
+        <v>598</v>
       </c>
     </row>
     <row r="239">
@@ -3970,7 +4138,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>571</v>
+        <v>599</v>
       </c>
     </row>
     <row r="240">
@@ -3978,7 +4146,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>572</v>
+        <v>600</v>
       </c>
     </row>
     <row r="241">
@@ -3986,7 +4154,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>573</v>
+        <v>601</v>
       </c>
     </row>
     <row r="242">
@@ -3994,7 +4162,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>574</v>
+        <v>602</v>
       </c>
     </row>
     <row r="243">
@@ -4002,7 +4170,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>575</v>
+        <v>603</v>
       </c>
     </row>
     <row r="244">
@@ -4010,7 +4178,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>576</v>
+        <v>604</v>
       </c>
     </row>
     <row r="245">
@@ -4018,7 +4186,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>577</v>
+        <v>605</v>
       </c>
     </row>
     <row r="246">
@@ -4026,7 +4194,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>578</v>
+        <v>606</v>
       </c>
     </row>
     <row r="247">
@@ -4034,7 +4202,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>579</v>
+        <v>607</v>
       </c>
     </row>
     <row r="248">
@@ -4042,7 +4210,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>580</v>
+        <v>608</v>
       </c>
     </row>
     <row r="249">
@@ -4050,7 +4218,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>581</v>
+        <v>609</v>
       </c>
     </row>
     <row r="250">
@@ -4058,7 +4226,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>582</v>
+        <v>610</v>
       </c>
     </row>
     <row r="251">
@@ -4066,7 +4234,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>583</v>
+        <v>611</v>
       </c>
     </row>
     <row r="252">
@@ -4074,7 +4242,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
     </row>
     <row r="253">
@@ -4082,7 +4250,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>585</v>
+        <v>613</v>
       </c>
     </row>
     <row r="254">
@@ -4090,7 +4258,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>586</v>
+        <v>614</v>
       </c>
     </row>
     <row r="255">
@@ -4098,7 +4266,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>587</v>
+        <v>615</v>
       </c>
     </row>
     <row r="256">
@@ -4106,7 +4274,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>588</v>
+        <v>616</v>
       </c>
     </row>
     <row r="257">
@@ -4114,7 +4282,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>589</v>
+        <v>617</v>
       </c>
     </row>
     <row r="258">
@@ -4122,7 +4290,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>590</v>
+        <v>618</v>
       </c>
     </row>
     <row r="259">
@@ -4130,7 +4298,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>591</v>
+        <v>619</v>
       </c>
     </row>
     <row r="260">
@@ -4138,7 +4306,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>592</v>
+        <v>620</v>
       </c>
     </row>
     <row r="261">
@@ -4146,7 +4314,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>593</v>
+        <v>621</v>
       </c>
     </row>
     <row r="262">
@@ -4154,7 +4322,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>594</v>
+        <v>622</v>
       </c>
     </row>
     <row r="263">
@@ -4162,7 +4330,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>595</v>
+        <v>623</v>
       </c>
     </row>
     <row r="264">
@@ -4170,7 +4338,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>596</v>
+        <v>624</v>
       </c>
     </row>
     <row r="265">
@@ -4178,7 +4346,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>597</v>
+        <v>625</v>
       </c>
     </row>
     <row r="266">
@@ -4186,7 +4354,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>598</v>
+        <v>626</v>
       </c>
     </row>
     <row r="267">
@@ -4194,7 +4362,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>599</v>
+        <v>627</v>
       </c>
     </row>
     <row r="268">
@@ -4202,7 +4370,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>600</v>
+        <v>628</v>
       </c>
     </row>
     <row r="269">
@@ -4210,7 +4378,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>601</v>
+        <v>629</v>
       </c>
     </row>
     <row r="270">
@@ -4218,7 +4386,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>602</v>
+        <v>630</v>
       </c>
     </row>
     <row r="271">
@@ -4226,7 +4394,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>603</v>
+        <v>631</v>
       </c>
     </row>
     <row r="272">
@@ -4234,7 +4402,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>604</v>
+        <v>632</v>
       </c>
     </row>
     <row r="273">
@@ -4242,7 +4410,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>605</v>
+        <v>633</v>
       </c>
     </row>
     <row r="274">
@@ -4250,7 +4418,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>606</v>
+        <v>634</v>
       </c>
     </row>
     <row r="275">
@@ -4258,7 +4426,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>607</v>
+        <v>635</v>
       </c>
     </row>
     <row r="276">
@@ -4266,7 +4434,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>608</v>
+        <v>636</v>
       </c>
     </row>
     <row r="277">
@@ -4274,7 +4442,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>609</v>
+        <v>637</v>
       </c>
     </row>
     <row r="278">
@@ -4282,7 +4450,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>610</v>
+        <v>638</v>
       </c>
     </row>
     <row r="279">
@@ -4290,7 +4458,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
     </row>
     <row r="280">
@@ -4298,7 +4466,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>612</v>
+        <v>640</v>
       </c>
     </row>
     <row r="281">
@@ -4306,7 +4474,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>613</v>
+        <v>641</v>
       </c>
     </row>
     <row r="282">
@@ -4314,7 +4482,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>614</v>
+        <v>642</v>
       </c>
     </row>
     <row r="283">
@@ -4322,7 +4490,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>615</v>
+        <v>643</v>
       </c>
     </row>
     <row r="284">
@@ -4330,7 +4498,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>616</v>
+        <v>644</v>
       </c>
     </row>
     <row r="285">
@@ -4338,7 +4506,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>617</v>
+        <v>645</v>
       </c>
     </row>
     <row r="286">
@@ -4346,7 +4514,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>618</v>
+        <v>646</v>
       </c>
     </row>
     <row r="287">
@@ -4354,7 +4522,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>619</v>
+        <v>647</v>
       </c>
     </row>
     <row r="288">
@@ -4362,7 +4530,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>620</v>
+        <v>648</v>
       </c>
     </row>
     <row r="289">
@@ -4370,7 +4538,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>621</v>
+        <v>649</v>
       </c>
     </row>
     <row r="290">
@@ -4378,7 +4546,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>622</v>
+        <v>650</v>
       </c>
     </row>
     <row r="291">
@@ -4386,7 +4554,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>623</v>
+        <v>651</v>
       </c>
     </row>
     <row r="292">
@@ -4394,7 +4562,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>624</v>
+        <v>652</v>
       </c>
     </row>
     <row r="293">
@@ -4402,7 +4570,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>625</v>
+        <v>653</v>
       </c>
     </row>
     <row r="294">
@@ -4410,7 +4578,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>626</v>
+        <v>654</v>
       </c>
     </row>
     <row r="295">
@@ -4418,7 +4586,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>627</v>
+        <v>655</v>
       </c>
     </row>
     <row r="296">
@@ -4426,7 +4594,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>628</v>
+        <v>656</v>
       </c>
     </row>
     <row r="297">
@@ -4434,7 +4602,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>629</v>
+        <v>657</v>
       </c>
     </row>
     <row r="298">
@@ -4442,7 +4610,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>630</v>
+        <v>658</v>
       </c>
     </row>
     <row r="299">
@@ -4450,7 +4618,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>631</v>
+        <v>659</v>
       </c>
     </row>
     <row r="300">
@@ -4458,7 +4626,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>632</v>
+        <v>660</v>
       </c>
     </row>
     <row r="301">
@@ -4466,7 +4634,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>633</v>
+        <v>661</v>
       </c>
     </row>
     <row r="302">
@@ -4474,7 +4642,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>634</v>
+        <v>662</v>
       </c>
     </row>
     <row r="303">
@@ -4482,7 +4650,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>635</v>
+        <v>663</v>
       </c>
     </row>
     <row r="304">
@@ -4490,7 +4658,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>636</v>
+        <v>664</v>
       </c>
     </row>
     <row r="305">
@@ -4498,7 +4666,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>637</v>
+        <v>665</v>
       </c>
     </row>
     <row r="306">
@@ -4506,7 +4674,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>638</v>
+        <v>666</v>
       </c>
     </row>
     <row r="307">
@@ -4514,7 +4682,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>639</v>
+        <v>667</v>
       </c>
     </row>
     <row r="308">
@@ -4522,7 +4690,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>640</v>
+        <v>668</v>
       </c>
     </row>
     <row r="309">
@@ -4530,7 +4698,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>641</v>
+        <v>669</v>
       </c>
     </row>
     <row r="310">
@@ -4538,7 +4706,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>642</v>
+        <v>670</v>
       </c>
     </row>
     <row r="311">
@@ -4546,7 +4714,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>643</v>
+        <v>671</v>
       </c>
     </row>
     <row r="312">
@@ -4554,7 +4722,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>644</v>
+        <v>672</v>
       </c>
     </row>
     <row r="313">
@@ -4562,7 +4730,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>645</v>
+        <v>673</v>
       </c>
     </row>
     <row r="314">
@@ -4570,7 +4738,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>646</v>
+        <v>674</v>
       </c>
     </row>
     <row r="315">
@@ -4578,7 +4746,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>647</v>
+        <v>675</v>
       </c>
     </row>
     <row r="316">
@@ -4586,7 +4754,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>648</v>
+        <v>676</v>
       </c>
     </row>
     <row r="317">
@@ -4594,7 +4762,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>649</v>
+        <v>677</v>
       </c>
     </row>
     <row r="318">
@@ -4602,7 +4770,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>650</v>
+        <v>678</v>
       </c>
     </row>
     <row r="319">
@@ -4610,7 +4778,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>651</v>
+        <v>679</v>
       </c>
     </row>
     <row r="320">
@@ -4618,7 +4786,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>652</v>
+        <v>680</v>
       </c>
     </row>
     <row r="321">
@@ -4626,7 +4794,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>653</v>
+        <v>681</v>
       </c>
     </row>
     <row r="322">
@@ -4634,7 +4802,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>654</v>
+        <v>682</v>
       </c>
     </row>
     <row r="323">
@@ -4642,7 +4810,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>655</v>
+        <v>683</v>
       </c>
     </row>
     <row r="324">
@@ -4650,7 +4818,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>656</v>
+        <v>684</v>
       </c>
     </row>
     <row r="325">
@@ -4658,7 +4826,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>657</v>
+        <v>685</v>
       </c>
     </row>
     <row r="326">
@@ -4666,7 +4834,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>658</v>
+        <v>686</v>
       </c>
     </row>
     <row r="327">
@@ -4674,7 +4842,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>659</v>
+        <v>687</v>
       </c>
     </row>
     <row r="328">
@@ -4682,7 +4850,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>660</v>
+        <v>688</v>
       </c>
     </row>
     <row r="329">
@@ -4690,7 +4858,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>661</v>
+        <v>689</v>
       </c>
     </row>
     <row r="330">
@@ -4698,7 +4866,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>662</v>
+        <v>690</v>
       </c>
     </row>
     <row r="331">
@@ -4706,7 +4874,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>663</v>
+        <v>691</v>
       </c>
     </row>
     <row r="332">
@@ -4714,7 +4882,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>664</v>
+        <v>692</v>
       </c>
     </row>
     <row r="333">
@@ -4722,7 +4890,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>665</v>
+        <v>693</v>
       </c>
     </row>
     <row r="334">
@@ -4730,7 +4898,231 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>666</v>
+        <v>694</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>334</v>
+      </c>
+      <c r="B335" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>335</v>
+      </c>
+      <c r="B336" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>336</v>
+      </c>
+      <c r="B337" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>337</v>
+      </c>
+      <c r="B338" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>338</v>
+      </c>
+      <c r="B339" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>339</v>
+      </c>
+      <c r="B340" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>340</v>
+      </c>
+      <c r="B341" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>341</v>
+      </c>
+      <c r="B342" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>342</v>
+      </c>
+      <c r="B343" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>343</v>
+      </c>
+      <c r="B344" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>344</v>
+      </c>
+      <c r="B345" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>345</v>
+      </c>
+      <c r="B346" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>346</v>
+      </c>
+      <c r="B347" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>347</v>
+      </c>
+      <c r="B348" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>348</v>
+      </c>
+      <c r="B349" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>349</v>
+      </c>
+      <c r="B350" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>350</v>
+      </c>
+      <c r="B351" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>351</v>
+      </c>
+      <c r="B352" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>352</v>
+      </c>
+      <c r="B353" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>353</v>
+      </c>
+      <c r="B354" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>354</v>
+      </c>
+      <c r="B355" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>355</v>
+      </c>
+      <c r="B356" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>356</v>
+      </c>
+      <c r="B357" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>357</v>
+      </c>
+      <c r="B358" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>358</v>
+      </c>
+      <c r="B359" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>359</v>
+      </c>
+      <c r="B360" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>360</v>
+      </c>
+      <c r="B361" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>361</v>
+      </c>
+      <c r="B362" t="s">
+        <v>722</v>
       </c>
     </row>
   </sheetData>

--- a/mls_urls.xlsx
+++ b/mls_urls.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="789">
   <si>
     <t>x</t>
   </si>
@@ -1100,6 +1100,105 @@
     <t>361</t>
   </si>
   <si>
+    <t>362</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>364</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>366</t>
+  </si>
+  <si>
+    <t>367</t>
+  </si>
+  <si>
+    <t>368</t>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>371</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>373</t>
+  </si>
+  <si>
+    <t>374</t>
+  </si>
+  <si>
+    <t>375</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
+    <t>378</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>381</t>
+  </si>
+  <si>
+    <t>382</t>
+  </si>
+  <si>
+    <t>383</t>
+  </si>
+  <si>
+    <t>384</t>
+  </si>
+  <si>
+    <t>385</t>
+  </si>
+  <si>
+    <t>386</t>
+  </si>
+  <si>
+    <t>387</t>
+  </si>
+  <si>
+    <t>388</t>
+  </si>
+  <si>
+    <t>389</t>
+  </si>
+  <si>
+    <t>390</t>
+  </si>
+  <si>
+    <t>391</t>
+  </si>
+  <si>
+    <t>392</t>
+  </si>
+  <si>
+    <t>393</t>
+  </si>
+  <si>
+    <t>394</t>
+  </si>
+  <si>
     <t>https://fbref.com/en/matches/6b8eefb5/Inter-Miami-Real-Salt-Lake-February-21-2024-Major-League-Soccer</t>
   </si>
   <si>
@@ -2181,6 +2280,105 @@
   </si>
   <si>
     <t>https://fbref.com/en/matches/f6e88d1c/LA-Galaxy-Portland-Timbers-July-20-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/e5be22d7/Minnesota-United-Seattle-Sounders-FC-August-24-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/00e2206c/New-York-City-FC-Chicago-Fire-August-24-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/46878a80/Inter-Miami-FC-Cincinnati-August-24-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/acc84c90/DC-United-FC-Dallas-August-24-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/f82480f6/Charlotte-FC-New-York-Red-Bulls-August-24-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/fc1099f0/CF-Montreal-New-England-Revolution-August-24-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/235f179c/LA-Galaxy-Atlanta-United-August-24-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/305def97/Sporting-Kansas-City-Orlando-City-August-24-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4d34c7cf/Real-Salt-Lake-San-Jose-Earthquakes-August-24-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/85dc8761/Portland-Timbers-St-Louis-City-August-24-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8c7d3a43/Nashville-SC-Austin-FC-August-24-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/b9f589d4/Houston-Dynamo-Toronto-FC-August-24-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8c446928/Philadelphia-Union-Columbus-Crew-August-28-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/035907cf/Toronto-FC-DC-United-August-31-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6b085b5a/Orlando-City-Nashville-SC-August-31-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/72230c82/Columbus-Crew-New-York-City-FC-August-31-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/763be4b7/FC-Cincinnati-CF-Montreal-August-31-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/9dcf6b5c/New-York-Red-Bulls-Philadelphia-Union-August-31-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/c0cd18b9/Charlotte-FC-Atlanta-United-August-31-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/64d5c015/St-Louis-City-LA-Galaxy-September-1-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/01224e17/Portland-Timbers-Seattle-Sounders-FC-August-31-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/0275bc70/Los-Angeles-FC-Houston-Dynamo-August-31-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/330726c3/FC-Dallas-Colorado-Rapids-August-31-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/4021beb0/Chicago-Fire-Inter-Miami-August-31-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/573d7d4b/Austin-FC-Vancouver-Whitecaps-FC-August-31-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/8e90b77b/San-Jose-Earthquakes-Minnesota-United-August-31-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/df8c77c3/Real-Salt-Lake-New-England-Revolution-August-31-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/09dabec5/Columbus-Crew-Seattle-Sounders-FC-September-7-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/da562cb2/New-York-Red-Bulls-Sporting-Kansas-City-September-7-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/eadc3696/New-England-Revolution-St-Louis-City-September-7-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6a574629/Houston-Dynamo-Los-Angeles-FC-September-7-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/6e65be1f/Vancouver-Whitecaps-FC-FC-Dallas-September-7-2024-Major-League-Soccer</t>
+  </si>
+  <si>
+    <t>https://fbref.com/en/matches/a6036159/Chicago-Fire-DC-United-September-7-2024-Major-League-Soccer</t>
   </si>
 </sst>
 </file>
@@ -2242,7 +2440,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>362</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3">
@@ -2250,7 +2448,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>363</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4">
@@ -2258,7 +2456,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5">
@@ -2266,7 +2464,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>365</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6">
@@ -2274,7 +2472,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>366</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7">
@@ -2282,7 +2480,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>367</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8">
@@ -2290,7 +2488,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>368</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9">
@@ -2298,7 +2496,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>369</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10">
@@ -2306,7 +2504,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>370</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11">
@@ -2314,7 +2512,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>371</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12">
@@ -2322,7 +2520,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>372</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13">
@@ -2330,7 +2528,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>373</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14">
@@ -2338,7 +2536,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>374</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15">
@@ -2346,7 +2544,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>375</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16">
@@ -2354,7 +2552,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>376</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17">
@@ -2362,7 +2560,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>377</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18">
@@ -2370,7 +2568,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>378</v>
+        <v>411</v>
       </c>
     </row>
     <row r="19">
@@ -2378,7 +2576,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>379</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20">
@@ -2386,7 +2584,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>380</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21">
@@ -2394,7 +2592,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>381</v>
+        <v>414</v>
       </c>
     </row>
     <row r="22">
@@ -2402,7 +2600,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>382</v>
+        <v>415</v>
       </c>
     </row>
     <row r="23">
@@ -2410,7 +2608,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>383</v>
+        <v>416</v>
       </c>
     </row>
     <row r="24">
@@ -2418,7 +2616,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>384</v>
+        <v>417</v>
       </c>
     </row>
     <row r="25">
@@ -2426,7 +2624,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>385</v>
+        <v>418</v>
       </c>
     </row>
     <row r="26">
@@ -2434,7 +2632,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>386</v>
+        <v>419</v>
       </c>
     </row>
     <row r="27">
@@ -2442,7 +2640,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>387</v>
+        <v>420</v>
       </c>
     </row>
     <row r="28">
@@ -2450,7 +2648,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>388</v>
+        <v>421</v>
       </c>
     </row>
     <row r="29">
@@ -2458,7 +2656,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>389</v>
+        <v>422</v>
       </c>
     </row>
     <row r="30">
@@ -2466,7 +2664,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>390</v>
+        <v>423</v>
       </c>
     </row>
     <row r="31">
@@ -2474,7 +2672,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>391</v>
+        <v>424</v>
       </c>
     </row>
     <row r="32">
@@ -2482,7 +2680,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>392</v>
+        <v>425</v>
       </c>
     </row>
     <row r="33">
@@ -2490,7 +2688,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>393</v>
+        <v>426</v>
       </c>
     </row>
     <row r="34">
@@ -2498,7 +2696,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>394</v>
+        <v>427</v>
       </c>
     </row>
     <row r="35">
@@ -2506,7 +2704,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>395</v>
+        <v>428</v>
       </c>
     </row>
     <row r="36">
@@ -2514,7 +2712,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>396</v>
+        <v>429</v>
       </c>
     </row>
     <row r="37">
@@ -2522,7 +2720,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>397</v>
+        <v>430</v>
       </c>
     </row>
     <row r="38">
@@ -2530,7 +2728,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>398</v>
+        <v>431</v>
       </c>
     </row>
     <row r="39">
@@ -2538,7 +2736,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>399</v>
+        <v>432</v>
       </c>
     </row>
     <row r="40">
@@ -2546,7 +2744,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>400</v>
+        <v>433</v>
       </c>
     </row>
     <row r="41">
@@ -2554,7 +2752,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>401</v>
+        <v>434</v>
       </c>
     </row>
     <row r="42">
@@ -2562,7 +2760,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>402</v>
+        <v>435</v>
       </c>
     </row>
     <row r="43">
@@ -2570,7 +2768,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>403</v>
+        <v>436</v>
       </c>
     </row>
     <row r="44">
@@ -2578,7 +2776,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>404</v>
+        <v>437</v>
       </c>
     </row>
     <row r="45">
@@ -2586,7 +2784,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>405</v>
+        <v>438</v>
       </c>
     </row>
     <row r="46">
@@ -2594,7 +2792,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>406</v>
+        <v>439</v>
       </c>
     </row>
     <row r="47">
@@ -2602,7 +2800,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>407</v>
+        <v>440</v>
       </c>
     </row>
     <row r="48">
@@ -2610,7 +2808,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>408</v>
+        <v>441</v>
       </c>
     </row>
     <row r="49">
@@ -2618,7 +2816,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>409</v>
+        <v>442</v>
       </c>
     </row>
     <row r="50">
@@ -2626,7 +2824,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>410</v>
+        <v>443</v>
       </c>
     </row>
     <row r="51">
@@ -2634,7 +2832,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>411</v>
+        <v>444</v>
       </c>
     </row>
     <row r="52">
@@ -2642,7 +2840,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>412</v>
+        <v>445</v>
       </c>
     </row>
     <row r="53">
@@ -2650,7 +2848,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>413</v>
+        <v>446</v>
       </c>
     </row>
     <row r="54">
@@ -2658,7 +2856,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>414</v>
+        <v>447</v>
       </c>
     </row>
     <row r="55">
@@ -2666,7 +2864,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>415</v>
+        <v>448</v>
       </c>
     </row>
     <row r="56">
@@ -2674,7 +2872,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>416</v>
+        <v>449</v>
       </c>
     </row>
     <row r="57">
@@ -2682,7 +2880,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>417</v>
+        <v>450</v>
       </c>
     </row>
     <row r="58">
@@ -2690,7 +2888,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>418</v>
+        <v>451</v>
       </c>
     </row>
     <row r="59">
@@ -2698,7 +2896,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>419</v>
+        <v>452</v>
       </c>
     </row>
     <row r="60">
@@ -2706,7 +2904,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>420</v>
+        <v>453</v>
       </c>
     </row>
     <row r="61">
@@ -2714,7 +2912,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>421</v>
+        <v>454</v>
       </c>
     </row>
     <row r="62">
@@ -2722,7 +2920,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>422</v>
+        <v>455</v>
       </c>
     </row>
     <row r="63">
@@ -2730,7 +2928,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>423</v>
+        <v>456</v>
       </c>
     </row>
     <row r="64">
@@ -2738,7 +2936,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>424</v>
+        <v>457</v>
       </c>
     </row>
     <row r="65">
@@ -2746,7 +2944,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>425</v>
+        <v>458</v>
       </c>
     </row>
     <row r="66">
@@ -2754,7 +2952,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>426</v>
+        <v>459</v>
       </c>
     </row>
     <row r="67">
@@ -2762,7 +2960,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>427</v>
+        <v>460</v>
       </c>
     </row>
     <row r="68">
@@ -2770,7 +2968,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>428</v>
+        <v>461</v>
       </c>
     </row>
     <row r="69">
@@ -2778,7 +2976,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>429</v>
+        <v>462</v>
       </c>
     </row>
     <row r="70">
@@ -2786,7 +2984,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>430</v>
+        <v>463</v>
       </c>
     </row>
     <row r="71">
@@ -2794,7 +2992,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>431</v>
+        <v>464</v>
       </c>
     </row>
     <row r="72">
@@ -2802,7 +3000,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>432</v>
+        <v>465</v>
       </c>
     </row>
     <row r="73">
@@ -2810,7 +3008,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>433</v>
+        <v>466</v>
       </c>
     </row>
     <row r="74">
@@ -2818,7 +3016,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>434</v>
+        <v>467</v>
       </c>
     </row>
     <row r="75">
@@ -2826,7 +3024,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>435</v>
+        <v>468</v>
       </c>
     </row>
     <row r="76">
@@ -2834,7 +3032,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>436</v>
+        <v>469</v>
       </c>
     </row>
     <row r="77">
@@ -2842,7 +3040,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>437</v>
+        <v>470</v>
       </c>
     </row>
     <row r="78">
@@ -2850,7 +3048,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>438</v>
+        <v>471</v>
       </c>
     </row>
     <row r="79">
@@ -2858,7 +3056,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>439</v>
+        <v>472</v>
       </c>
     </row>
     <row r="80">
@@ -2866,7 +3064,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>440</v>
+        <v>473</v>
       </c>
     </row>
     <row r="81">
@@ -2874,7 +3072,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>441</v>
+        <v>474</v>
       </c>
     </row>
     <row r="82">
@@ -2882,7 +3080,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>442</v>
+        <v>475</v>
       </c>
     </row>
     <row r="83">
@@ -2890,7 +3088,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>443</v>
+        <v>476</v>
       </c>
     </row>
     <row r="84">
@@ -2898,7 +3096,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>444</v>
+        <v>477</v>
       </c>
     </row>
     <row r="85">
@@ -2906,7 +3104,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>445</v>
+        <v>478</v>
       </c>
     </row>
     <row r="86">
@@ -2914,7 +3112,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>446</v>
+        <v>479</v>
       </c>
     </row>
     <row r="87">
@@ -2922,7 +3120,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>447</v>
+        <v>480</v>
       </c>
     </row>
     <row r="88">
@@ -2930,7 +3128,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>448</v>
+        <v>481</v>
       </c>
     </row>
     <row r="89">
@@ -2938,7 +3136,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>449</v>
+        <v>482</v>
       </c>
     </row>
     <row r="90">
@@ -2946,7 +3144,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>450</v>
+        <v>483</v>
       </c>
     </row>
     <row r="91">
@@ -2954,7 +3152,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>451</v>
+        <v>484</v>
       </c>
     </row>
     <row r="92">
@@ -2962,7 +3160,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>452</v>
+        <v>485</v>
       </c>
     </row>
     <row r="93">
@@ -2970,7 +3168,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>453</v>
+        <v>486</v>
       </c>
     </row>
     <row r="94">
@@ -2978,7 +3176,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>454</v>
+        <v>487</v>
       </c>
     </row>
     <row r="95">
@@ -2986,7 +3184,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>455</v>
+        <v>488</v>
       </c>
     </row>
     <row r="96">
@@ -2994,7 +3192,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>456</v>
+        <v>489</v>
       </c>
     </row>
     <row r="97">
@@ -3002,7 +3200,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>457</v>
+        <v>490</v>
       </c>
     </row>
     <row r="98">
@@ -3010,7 +3208,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>458</v>
+        <v>491</v>
       </c>
     </row>
     <row r="99">
@@ -3018,7 +3216,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>459</v>
+        <v>492</v>
       </c>
     </row>
     <row r="100">
@@ -3026,7 +3224,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>460</v>
+        <v>493</v>
       </c>
     </row>
     <row r="101">
@@ -3034,7 +3232,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>461</v>
+        <v>494</v>
       </c>
     </row>
     <row r="102">
@@ -3042,7 +3240,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>462</v>
+        <v>495</v>
       </c>
     </row>
     <row r="103">
@@ -3050,7 +3248,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>463</v>
+        <v>496</v>
       </c>
     </row>
     <row r="104">
@@ -3058,7 +3256,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>464</v>
+        <v>497</v>
       </c>
     </row>
     <row r="105">
@@ -3066,7 +3264,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>465</v>
+        <v>498</v>
       </c>
     </row>
     <row r="106">
@@ -3074,7 +3272,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>466</v>
+        <v>499</v>
       </c>
     </row>
     <row r="107">
@@ -3082,7 +3280,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>467</v>
+        <v>500</v>
       </c>
     </row>
     <row r="108">
@@ -3090,7 +3288,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>468</v>
+        <v>501</v>
       </c>
     </row>
     <row r="109">
@@ -3098,7 +3296,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>469</v>
+        <v>502</v>
       </c>
     </row>
     <row r="110">
@@ -3106,7 +3304,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
     </row>
     <row r="111">
@@ -3114,7 +3312,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>471</v>
+        <v>504</v>
       </c>
     </row>
     <row r="112">
@@ -3122,7 +3320,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
     </row>
     <row r="113">
@@ -3130,7 +3328,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>473</v>
+        <v>506</v>
       </c>
     </row>
     <row r="114">
@@ -3138,7 +3336,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>474</v>
+        <v>507</v>
       </c>
     </row>
     <row r="115">
@@ -3146,7 +3344,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>475</v>
+        <v>508</v>
       </c>
     </row>
     <row r="116">
@@ -3154,7 +3352,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>476</v>
+        <v>509</v>
       </c>
     </row>
     <row r="117">
@@ -3162,7 +3360,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>477</v>
+        <v>510</v>
       </c>
     </row>
     <row r="118">
@@ -3170,7 +3368,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>478</v>
+        <v>511</v>
       </c>
     </row>
     <row r="119">
@@ -3178,7 +3376,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>479</v>
+        <v>512</v>
       </c>
     </row>
     <row r="120">
@@ -3186,7 +3384,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>480</v>
+        <v>513</v>
       </c>
     </row>
     <row r="121">
@@ -3194,7 +3392,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>481</v>
+        <v>514</v>
       </c>
     </row>
     <row r="122">
@@ -3202,7 +3400,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>482</v>
+        <v>515</v>
       </c>
     </row>
     <row r="123">
@@ -3210,7 +3408,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>483</v>
+        <v>516</v>
       </c>
     </row>
     <row r="124">
@@ -3218,7 +3416,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>484</v>
+        <v>517</v>
       </c>
     </row>
     <row r="125">
@@ -3226,7 +3424,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
     </row>
     <row r="126">
@@ -3234,7 +3432,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>486</v>
+        <v>519</v>
       </c>
     </row>
     <row r="127">
@@ -3242,7 +3440,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>487</v>
+        <v>520</v>
       </c>
     </row>
     <row r="128">
@@ -3250,7 +3448,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>488</v>
+        <v>521</v>
       </c>
     </row>
     <row r="129">
@@ -3258,7 +3456,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>489</v>
+        <v>522</v>
       </c>
     </row>
     <row r="130">
@@ -3266,7 +3464,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
     </row>
     <row r="131">
@@ -3274,7 +3472,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>491</v>
+        <v>524</v>
       </c>
     </row>
     <row r="132">
@@ -3282,7 +3480,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>492</v>
+        <v>525</v>
       </c>
     </row>
     <row r="133">
@@ -3290,7 +3488,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>493</v>
+        <v>526</v>
       </c>
     </row>
     <row r="134">
@@ -3298,7 +3496,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>494</v>
+        <v>527</v>
       </c>
     </row>
     <row r="135">
@@ -3306,7 +3504,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>495</v>
+        <v>528</v>
       </c>
     </row>
     <row r="136">
@@ -3314,7 +3512,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>496</v>
+        <v>529</v>
       </c>
     </row>
     <row r="137">
@@ -3322,7 +3520,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>497</v>
+        <v>530</v>
       </c>
     </row>
     <row r="138">
@@ -3330,7 +3528,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
     </row>
     <row r="139">
@@ -3338,7 +3536,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>499</v>
+        <v>532</v>
       </c>
     </row>
     <row r="140">
@@ -3346,7 +3544,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>500</v>
+        <v>533</v>
       </c>
     </row>
     <row r="141">
@@ -3354,7 +3552,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>501</v>
+        <v>534</v>
       </c>
     </row>
     <row r="142">
@@ -3362,7 +3560,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>502</v>
+        <v>535</v>
       </c>
     </row>
     <row r="143">
@@ -3370,7 +3568,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>503</v>
+        <v>536</v>
       </c>
     </row>
     <row r="144">
@@ -3378,7 +3576,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>504</v>
+        <v>537</v>
       </c>
     </row>
     <row r="145">
@@ -3386,7 +3584,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>505</v>
+        <v>538</v>
       </c>
     </row>
     <row r="146">
@@ -3394,7 +3592,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>506</v>
+        <v>539</v>
       </c>
     </row>
     <row r="147">
@@ -3402,7 +3600,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>507</v>
+        <v>540</v>
       </c>
     </row>
     <row r="148">
@@ -3410,7 +3608,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>508</v>
+        <v>541</v>
       </c>
     </row>
     <row r="149">
@@ -3418,7 +3616,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>509</v>
+        <v>542</v>
       </c>
     </row>
     <row r="150">
@@ -3426,7 +3624,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>510</v>
+        <v>543</v>
       </c>
     </row>
     <row r="151">
@@ -3434,7 +3632,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>511</v>
+        <v>544</v>
       </c>
     </row>
     <row r="152">
@@ -3442,7 +3640,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>512</v>
+        <v>545</v>
       </c>
     </row>
     <row r="153">
@@ -3450,7 +3648,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>513</v>
+        <v>546</v>
       </c>
     </row>
     <row r="154">
@@ -3458,7 +3656,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>514</v>
+        <v>547</v>
       </c>
     </row>
     <row r="155">
@@ -3466,7 +3664,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>515</v>
+        <v>548</v>
       </c>
     </row>
     <row r="156">
@@ -3474,7 +3672,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>516</v>
+        <v>549</v>
       </c>
     </row>
     <row r="157">
@@ -3482,7 +3680,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>517</v>
+        <v>550</v>
       </c>
     </row>
     <row r="158">
@@ -3490,7 +3688,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>518</v>
+        <v>551</v>
       </c>
     </row>
     <row r="159">
@@ -3498,7 +3696,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>519</v>
+        <v>552</v>
       </c>
     </row>
     <row r="160">
@@ -3506,7 +3704,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>520</v>
+        <v>553</v>
       </c>
     </row>
     <row r="161">
@@ -3514,7 +3712,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>521</v>
+        <v>554</v>
       </c>
     </row>
     <row r="162">
@@ -3522,7 +3720,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>522</v>
+        <v>555</v>
       </c>
     </row>
     <row r="163">
@@ -3530,7 +3728,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>523</v>
+        <v>556</v>
       </c>
     </row>
     <row r="164">
@@ -3538,7 +3736,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>524</v>
+        <v>557</v>
       </c>
     </row>
     <row r="165">
@@ -3546,7 +3744,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>525</v>
+        <v>558</v>
       </c>
     </row>
     <row r="166">
@@ -3554,7 +3752,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>526</v>
+        <v>559</v>
       </c>
     </row>
     <row r="167">
@@ -3562,7 +3760,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>527</v>
+        <v>560</v>
       </c>
     </row>
     <row r="168">
@@ -3570,7 +3768,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>528</v>
+        <v>561</v>
       </c>
     </row>
     <row r="169">
@@ -3578,7 +3776,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>529</v>
+        <v>562</v>
       </c>
     </row>
     <row r="170">
@@ -3586,7 +3784,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>530</v>
+        <v>563</v>
       </c>
     </row>
     <row r="171">
@@ -3594,7 +3792,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>531</v>
+        <v>564</v>
       </c>
     </row>
     <row r="172">
@@ -3602,7 +3800,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>532</v>
+        <v>565</v>
       </c>
     </row>
     <row r="173">
@@ -3610,7 +3808,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>533</v>
+        <v>566</v>
       </c>
     </row>
     <row r="174">
@@ -3618,7 +3816,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>534</v>
+        <v>567</v>
       </c>
     </row>
     <row r="175">
@@ -3626,7 +3824,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>535</v>
+        <v>568</v>
       </c>
     </row>
     <row r="176">
@@ -3634,7 +3832,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>536</v>
+        <v>569</v>
       </c>
     </row>
     <row r="177">
@@ -3642,7 +3840,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>537</v>
+        <v>570</v>
       </c>
     </row>
     <row r="178">
@@ -3650,7 +3848,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>538</v>
+        <v>571</v>
       </c>
     </row>
     <row r="179">
@@ -3658,7 +3856,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>539</v>
+        <v>572</v>
       </c>
     </row>
     <row r="180">
@@ -3666,7 +3864,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>540</v>
+        <v>573</v>
       </c>
     </row>
     <row r="181">
@@ -3674,7 +3872,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>541</v>
+        <v>574</v>
       </c>
     </row>
     <row r="182">
@@ -3682,7 +3880,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>542</v>
+        <v>575</v>
       </c>
     </row>
     <row r="183">
@@ -3690,7 +3888,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>543</v>
+        <v>576</v>
       </c>
     </row>
     <row r="184">
@@ -3698,7 +3896,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>544</v>
+        <v>577</v>
       </c>
     </row>
     <row r="185">
@@ -3706,7 +3904,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>545</v>
+        <v>578</v>
       </c>
     </row>
     <row r="186">
@@ -3714,7 +3912,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>546</v>
+        <v>579</v>
       </c>
     </row>
     <row r="187">
@@ -3722,7 +3920,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>547</v>
+        <v>580</v>
       </c>
     </row>
     <row r="188">
@@ -3730,7 +3928,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>548</v>
+        <v>581</v>
       </c>
     </row>
     <row r="189">
@@ -3738,7 +3936,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>549</v>
+        <v>582</v>
       </c>
     </row>
     <row r="190">
@@ -3746,7 +3944,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>550</v>
+        <v>583</v>
       </c>
     </row>
     <row r="191">
@@ -3754,7 +3952,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>551</v>
+        <v>584</v>
       </c>
     </row>
     <row r="192">
@@ -3762,7 +3960,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>552</v>
+        <v>585</v>
       </c>
     </row>
     <row r="193">
@@ -3770,7 +3968,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>553</v>
+        <v>586</v>
       </c>
     </row>
     <row r="194">
@@ -3778,7 +3976,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>554</v>
+        <v>587</v>
       </c>
     </row>
     <row r="195">
@@ -3786,7 +3984,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>555</v>
+        <v>588</v>
       </c>
     </row>
     <row r="196">
@@ -3794,7 +3992,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>556</v>
+        <v>589</v>
       </c>
     </row>
     <row r="197">
@@ -3802,7 +4000,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>557</v>
+        <v>590</v>
       </c>
     </row>
     <row r="198">
@@ -3810,7 +4008,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>558</v>
+        <v>591</v>
       </c>
     </row>
     <row r="199">
@@ -3818,7 +4016,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>559</v>
+        <v>592</v>
       </c>
     </row>
     <row r="200">
@@ -3826,7 +4024,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>560</v>
+        <v>593</v>
       </c>
     </row>
     <row r="201">
@@ -3834,7 +4032,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>561</v>
+        <v>594</v>
       </c>
     </row>
     <row r="202">
@@ -3842,7 +4040,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>562</v>
+        <v>595</v>
       </c>
     </row>
     <row r="203">
@@ -3850,7 +4048,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>563</v>
+        <v>596</v>
       </c>
     </row>
     <row r="204">
@@ -3858,7 +4056,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>564</v>
+        <v>597</v>
       </c>
     </row>
     <row r="205">
@@ -3866,7 +4064,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>565</v>
+        <v>598</v>
       </c>
     </row>
     <row r="206">
@@ -3874,7 +4072,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>566</v>
+        <v>599</v>
       </c>
     </row>
     <row r="207">
@@ -3882,7 +4080,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>567</v>
+        <v>600</v>
       </c>
     </row>
     <row r="208">
@@ -3890,7 +4088,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>568</v>
+        <v>601</v>
       </c>
     </row>
     <row r="209">
@@ -3898,7 +4096,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>569</v>
+        <v>602</v>
       </c>
     </row>
     <row r="210">
@@ -3906,7 +4104,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>570</v>
+        <v>603</v>
       </c>
     </row>
     <row r="211">
@@ -3914,7 +4112,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>571</v>
+        <v>604</v>
       </c>
     </row>
     <row r="212">
@@ -3922,7 +4120,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>572</v>
+        <v>605</v>
       </c>
     </row>
     <row r="213">
@@ -3930,7 +4128,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>573</v>
+        <v>606</v>
       </c>
     </row>
     <row r="214">
@@ -3938,7 +4136,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>574</v>
+        <v>607</v>
       </c>
     </row>
     <row r="215">
@@ -3946,7 +4144,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>575</v>
+        <v>608</v>
       </c>
     </row>
     <row r="216">
@@ -3954,7 +4152,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>576</v>
+        <v>609</v>
       </c>
     </row>
     <row r="217">
@@ -3962,7 +4160,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>577</v>
+        <v>610</v>
       </c>
     </row>
     <row r="218">
@@ -3970,7 +4168,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>578</v>
+        <v>611</v>
       </c>
     </row>
     <row r="219">
@@ -3978,7 +4176,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>579</v>
+        <v>612</v>
       </c>
     </row>
     <row r="220">
@@ -3986,7 +4184,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>580</v>
+        <v>613</v>
       </c>
     </row>
     <row r="221">
@@ -3994,7 +4192,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>581</v>
+        <v>614</v>
       </c>
     </row>
     <row r="222">
@@ -4002,7 +4200,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>582</v>
+        <v>615</v>
       </c>
     </row>
     <row r="223">
@@ -4010,7 +4208,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>583</v>
+        <v>616</v>
       </c>
     </row>
     <row r="224">
@@ -4018,7 +4216,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>584</v>
+        <v>617</v>
       </c>
     </row>
     <row r="225">
@@ -4026,7 +4224,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>585</v>
+        <v>618</v>
       </c>
     </row>
     <row r="226">
@@ -4034,7 +4232,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>586</v>
+        <v>619</v>
       </c>
     </row>
     <row r="227">
@@ -4042,7 +4240,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>587</v>
+        <v>620</v>
       </c>
     </row>
     <row r="228">
@@ -4050,7 +4248,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>588</v>
+        <v>621</v>
       </c>
     </row>
     <row r="229">
@@ -4058,7 +4256,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>589</v>
+        <v>622</v>
       </c>
     </row>
     <row r="230">
@@ -4066,7 +4264,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>590</v>
+        <v>623</v>
       </c>
     </row>
     <row r="231">
@@ -4074,7 +4272,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>591</v>
+        <v>624</v>
       </c>
     </row>
     <row r="232">
@@ -4082,7 +4280,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>592</v>
+        <v>625</v>
       </c>
     </row>
     <row r="233">
@@ -4090,7 +4288,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>593</v>
+        <v>626</v>
       </c>
     </row>
     <row r="234">
@@ -4098,7 +4296,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>594</v>
+        <v>627</v>
       </c>
     </row>
     <row r="235">
@@ -4106,7 +4304,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>595</v>
+        <v>628</v>
       </c>
     </row>
     <row r="236">
@@ -4114,7 +4312,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>596</v>
+        <v>629</v>
       </c>
     </row>
     <row r="237">
@@ -4122,7 +4320,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>597</v>
+        <v>630</v>
       </c>
     </row>
     <row r="238">
@@ -4130,7 +4328,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>598</v>
+        <v>631</v>
       </c>
     </row>
     <row r="239">
@@ -4138,7 +4336,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>599</v>
+        <v>632</v>
       </c>
     </row>
     <row r="240">
@@ -4146,7 +4344,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>600</v>
+        <v>633</v>
       </c>
     </row>
     <row r="241">
@@ -4154,7 +4352,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>601</v>
+        <v>634</v>
       </c>
     </row>
     <row r="242">
@@ -4162,7 +4360,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>602</v>
+        <v>635</v>
       </c>
     </row>
     <row r="243">
@@ -4170,7 +4368,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>603</v>
+        <v>636</v>
       </c>
     </row>
     <row r="244">
@@ -4178,7 +4376,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>604</v>
+        <v>637</v>
       </c>
     </row>
     <row r="245">
@@ -4186,7 +4384,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>605</v>
+        <v>638</v>
       </c>
     </row>
     <row r="246">
@@ -4194,7 +4392,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>606</v>
+        <v>639</v>
       </c>
     </row>
     <row r="247">
@@ -4202,7 +4400,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>607</v>
+        <v>640</v>
       </c>
     </row>
     <row r="248">
@@ -4210,7 +4408,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>608</v>
+        <v>641</v>
       </c>
     </row>
     <row r="249">
@@ -4218,7 +4416,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>609</v>
+        <v>642</v>
       </c>
     </row>
     <row r="250">
@@ -4226,7 +4424,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>610</v>
+        <v>643</v>
       </c>
     </row>
     <row r="251">
@@ -4234,7 +4432,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>611</v>
+        <v>644</v>
       </c>
     </row>
     <row r="252">
@@ -4242,7 +4440,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>612</v>
+        <v>645</v>
       </c>
     </row>
     <row r="253">
@@ -4250,7 +4448,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>613</v>
+        <v>646</v>
       </c>
     </row>
     <row r="254">
@@ -4258,7 +4456,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>614</v>
+        <v>647</v>
       </c>
     </row>
     <row r="255">
@@ -4266,7 +4464,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>615</v>
+        <v>648</v>
       </c>
     </row>
     <row r="256">
@@ -4274,7 +4472,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>616</v>
+        <v>649</v>
       </c>
     </row>
     <row r="257">
@@ -4282,7 +4480,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>617</v>
+        <v>650</v>
       </c>
     </row>
     <row r="258">
@@ -4290,7 +4488,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>618</v>
+        <v>651</v>
       </c>
     </row>
     <row r="259">
@@ -4298,7 +4496,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>619</v>
+        <v>652</v>
       </c>
     </row>
     <row r="260">
@@ -4306,7 +4504,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>620</v>
+        <v>653</v>
       </c>
     </row>
     <row r="261">
@@ -4314,7 +4512,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>621</v>
+        <v>654</v>
       </c>
     </row>
     <row r="262">
@@ -4322,7 +4520,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>622</v>
+        <v>655</v>
       </c>
     </row>
     <row r="263">
@@ -4330,7 +4528,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>623</v>
+        <v>656</v>
       </c>
     </row>
     <row r="264">
@@ -4338,7 +4536,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>624</v>
+        <v>657</v>
       </c>
     </row>
     <row r="265">
@@ -4346,7 +4544,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>625</v>
+        <v>658</v>
       </c>
     </row>
     <row r="266">
@@ -4354,7 +4552,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>626</v>
+        <v>659</v>
       </c>
     </row>
     <row r="267">
@@ -4362,7 +4560,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>627</v>
+        <v>660</v>
       </c>
     </row>
     <row r="268">
@@ -4370,7 +4568,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>628</v>
+        <v>661</v>
       </c>
     </row>
     <row r="269">
@@ -4378,7 +4576,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>629</v>
+        <v>662</v>
       </c>
     </row>
     <row r="270">
@@ -4386,7 +4584,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>630</v>
+        <v>663</v>
       </c>
     </row>
     <row r="271">
@@ -4394,7 +4592,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>631</v>
+        <v>664</v>
       </c>
     </row>
     <row r="272">
@@ -4402,7 +4600,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>632</v>
+        <v>665</v>
       </c>
     </row>
     <row r="273">
@@ -4410,7 +4608,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>633</v>
+        <v>666</v>
       </c>
     </row>
     <row r="274">
@@ -4418,7 +4616,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>634</v>
+        <v>667</v>
       </c>
     </row>
     <row r="275">
@@ -4426,7 +4624,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>635</v>
+        <v>668</v>
       </c>
     </row>
     <row r="276">
@@ -4434,7 +4632,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>636</v>
+        <v>669</v>
       </c>
     </row>
     <row r="277">
@@ -4442,7 +4640,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>637</v>
+        <v>670</v>
       </c>
     </row>
     <row r="278">
@@ -4450,7 +4648,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>638</v>
+        <v>671</v>
       </c>
     </row>
     <row r="279">
@@ -4458,7 +4656,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>639</v>
+        <v>672</v>
       </c>
     </row>
     <row r="280">
@@ -4466,7 +4664,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>640</v>
+        <v>673</v>
       </c>
     </row>
     <row r="281">
@@ -4474,7 +4672,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>641</v>
+        <v>674</v>
       </c>
     </row>
     <row r="282">
@@ -4482,7 +4680,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>642</v>
+        <v>675</v>
       </c>
     </row>
     <row r="283">
@@ -4490,7 +4688,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>643</v>
+        <v>676</v>
       </c>
     </row>
     <row r="284">
@@ -4498,7 +4696,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>644</v>
+        <v>677</v>
       </c>
     </row>
     <row r="285">
@@ -4506,7 +4704,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>645</v>
+        <v>678</v>
       </c>
     </row>
     <row r="286">
@@ -4514,7 +4712,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>646</v>
+        <v>679</v>
       </c>
     </row>
     <row r="287">
@@ -4522,7 +4720,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>647</v>
+        <v>680</v>
       </c>
     </row>
     <row r="288">
@@ -4530,7 +4728,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>648</v>
+        <v>681</v>
       </c>
     </row>
     <row r="289">
@@ -4538,7 +4736,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>649</v>
+        <v>682</v>
       </c>
     </row>
     <row r="290">
@@ -4546,7 +4744,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>650</v>
+        <v>683</v>
       </c>
     </row>
     <row r="291">
@@ -4554,7 +4752,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>651</v>
+        <v>684</v>
       </c>
     </row>
     <row r="292">
@@ -4562,7 +4760,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>652</v>
+        <v>685</v>
       </c>
     </row>
     <row r="293">
@@ -4570,7 +4768,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>653</v>
+        <v>686</v>
       </c>
     </row>
     <row r="294">
@@ -4578,7 +4776,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>654</v>
+        <v>687</v>
       </c>
     </row>
     <row r="295">
@@ -4586,7 +4784,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>655</v>
+        <v>688</v>
       </c>
     </row>
     <row r="296">
@@ -4594,7 +4792,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>656</v>
+        <v>689</v>
       </c>
     </row>
     <row r="297">
@@ -4602,7 +4800,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>657</v>
+        <v>690</v>
       </c>
     </row>
     <row r="298">
@@ -4610,7 +4808,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>658</v>
+        <v>691</v>
       </c>
     </row>
     <row r="299">
@@ -4618,7 +4816,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>659</v>
+        <v>692</v>
       </c>
     </row>
     <row r="300">
@@ -4626,7 +4824,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>660</v>
+        <v>693</v>
       </c>
     </row>
     <row r="301">
@@ -4634,7 +4832,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>661</v>
+        <v>694</v>
       </c>
     </row>
     <row r="302">
@@ -4642,7 +4840,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>662</v>
+        <v>695</v>
       </c>
     </row>
     <row r="303">
@@ -4650,7 +4848,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>663</v>
+        <v>696</v>
       </c>
     </row>
     <row r="304">
@@ -4658,7 +4856,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>664</v>
+        <v>697</v>
       </c>
     </row>
     <row r="305">
@@ -4666,7 +4864,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>665</v>
+        <v>698</v>
       </c>
     </row>
     <row r="306">
@@ -4674,7 +4872,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>666</v>
+        <v>699</v>
       </c>
     </row>
     <row r="307">
@@ -4682,7 +4880,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>667</v>
+        <v>700</v>
       </c>
     </row>
     <row r="308">
@@ -4690,7 +4888,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>668</v>
+        <v>701</v>
       </c>
     </row>
     <row r="309">
@@ -4698,7 +4896,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>669</v>
+        <v>702</v>
       </c>
     </row>
     <row r="310">
@@ -4706,7 +4904,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>670</v>
+        <v>703</v>
       </c>
     </row>
     <row r="311">
@@ -4714,7 +4912,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>671</v>
+        <v>704</v>
       </c>
     </row>
     <row r="312">
@@ -4722,7 +4920,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>672</v>
+        <v>705</v>
       </c>
     </row>
     <row r="313">
@@ -4730,7 +4928,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>673</v>
+        <v>706</v>
       </c>
     </row>
     <row r="314">
@@ -4738,7 +4936,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>674</v>
+        <v>707</v>
       </c>
     </row>
     <row r="315">
@@ -4746,7 +4944,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>675</v>
+        <v>708</v>
       </c>
     </row>
     <row r="316">
@@ -4754,7 +4952,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>676</v>
+        <v>709</v>
       </c>
     </row>
     <row r="317">
@@ -4762,7 +4960,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>677</v>
+        <v>710</v>
       </c>
     </row>
     <row r="318">
@@ -4770,7 +4968,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>678</v>
+        <v>711</v>
       </c>
     </row>
     <row r="319">
@@ -4778,7 +4976,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>679</v>
+        <v>712</v>
       </c>
     </row>
     <row r="320">
@@ -4786,7 +4984,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>680</v>
+        <v>713</v>
       </c>
     </row>
     <row r="321">
@@ -4794,7 +4992,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>681</v>
+        <v>714</v>
       </c>
     </row>
     <row r="322">
@@ -4802,7 +5000,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>682</v>
+        <v>715</v>
       </c>
     </row>
     <row r="323">
@@ -4810,7 +5008,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>683</v>
+        <v>716</v>
       </c>
     </row>
     <row r="324">
@@ -4818,7 +5016,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>684</v>
+        <v>717</v>
       </c>
     </row>
     <row r="325">
@@ -4826,7 +5024,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>685</v>
+        <v>718</v>
       </c>
     </row>
     <row r="326">
@@ -4834,7 +5032,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>686</v>
+        <v>719</v>
       </c>
     </row>
     <row r="327">
@@ -4842,7 +5040,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>687</v>
+        <v>720</v>
       </c>
     </row>
     <row r="328">
@@ -4850,7 +5048,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>688</v>
+        <v>721</v>
       </c>
     </row>
     <row r="329">
@@ -4858,7 +5056,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>689</v>
+        <v>722</v>
       </c>
     </row>
     <row r="330">
@@ -4866,7 +5064,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>690</v>
+        <v>723</v>
       </c>
     </row>
     <row r="331">
@@ -4874,7 +5072,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>691</v>
+        <v>724</v>
       </c>
     </row>
     <row r="332">
@@ -4882,7 +5080,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>692</v>
+        <v>725</v>
       </c>
     </row>
     <row r="333">
@@ -4890,7 +5088,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>693</v>
+        <v>726</v>
       </c>
     </row>
     <row r="334">
@@ -4898,7 +5096,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>694</v>
+        <v>727</v>
       </c>
     </row>
     <row r="335">
@@ -4906,7 +5104,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>695</v>
+        <v>728</v>
       </c>
     </row>
     <row r="336">
@@ -4914,7 +5112,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>696</v>
+        <v>729</v>
       </c>
     </row>
     <row r="337">
@@ -4922,7 +5120,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>697</v>
+        <v>730</v>
       </c>
     </row>
     <row r="338">
@@ -4930,7 +5128,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>698</v>
+        <v>731</v>
       </c>
     </row>
     <row r="339">
@@ -4938,7 +5136,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>699</v>
+        <v>732</v>
       </c>
     </row>
     <row r="340">
@@ -4946,7 +5144,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>700</v>
+        <v>733</v>
       </c>
     </row>
     <row r="341">
@@ -4954,7 +5152,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>701</v>
+        <v>734</v>
       </c>
     </row>
     <row r="342">
@@ -4962,7 +5160,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>702</v>
+        <v>735</v>
       </c>
     </row>
     <row r="343">
@@ -4970,7 +5168,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>703</v>
+        <v>736</v>
       </c>
     </row>
     <row r="344">
@@ -4978,7 +5176,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>704</v>
+        <v>737</v>
       </c>
     </row>
     <row r="345">
@@ -4986,7 +5184,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>705</v>
+        <v>738</v>
       </c>
     </row>
     <row r="346">
@@ -4994,7 +5192,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>706</v>
+        <v>739</v>
       </c>
     </row>
     <row r="347">
@@ -5002,7 +5200,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>707</v>
+        <v>740</v>
       </c>
     </row>
     <row r="348">
@@ -5010,7 +5208,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>708</v>
+        <v>741</v>
       </c>
     </row>
     <row r="349">
@@ -5018,7 +5216,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>709</v>
+        <v>742</v>
       </c>
     </row>
     <row r="350">
@@ -5026,7 +5224,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>710</v>
+        <v>743</v>
       </c>
     </row>
     <row r="351">
@@ -5034,7 +5232,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>711</v>
+        <v>744</v>
       </c>
     </row>
     <row r="352">
@@ -5042,7 +5240,7 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>712</v>
+        <v>745</v>
       </c>
     </row>
     <row r="353">
@@ -5050,7 +5248,7 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>713</v>
+        <v>746</v>
       </c>
     </row>
     <row r="354">
@@ -5058,7 +5256,7 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>714</v>
+        <v>747</v>
       </c>
     </row>
     <row r="355">
@@ -5066,7 +5264,7 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>715</v>
+        <v>748</v>
       </c>
     </row>
     <row r="356">
@@ -5074,7 +5272,7 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>716</v>
+        <v>749</v>
       </c>
     </row>
     <row r="357">
@@ -5082,7 +5280,7 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>717</v>
+        <v>750</v>
       </c>
     </row>
     <row r="358">
@@ -5090,7 +5288,7 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>718</v>
+        <v>751</v>
       </c>
     </row>
     <row r="359">
@@ -5098,7 +5296,7 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>719</v>
+        <v>752</v>
       </c>
     </row>
     <row r="360">
@@ -5106,7 +5304,7 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>720</v>
+        <v>753</v>
       </c>
     </row>
     <row r="361">
@@ -5114,7 +5312,7 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>721</v>
+        <v>754</v>
       </c>
     </row>
     <row r="362">
@@ -5122,7 +5320,271 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>722</v>
+        <v>755</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>362</v>
+      </c>
+      <c r="B363" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>363</v>
+      </c>
+      <c r="B364" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>364</v>
+      </c>
+      <c r="B365" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>365</v>
+      </c>
+      <c r="B366" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>366</v>
+      </c>
+      <c r="B367" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>367</v>
+      </c>
+      <c r="B368" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>368</v>
+      </c>
+      <c r="B369" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>369</v>
+      </c>
+      <c r="B370" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>370</v>
+      </c>
+      <c r="B371" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>371</v>
+      </c>
+      <c r="B372" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>372</v>
+      </c>
+      <c r="B373" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>373</v>
+      </c>
+      <c r="B374" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>374</v>
+      </c>
+      <c r="B375" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>375</v>
+      </c>
+      <c r="B376" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>376</v>
+      </c>
+      <c r="B377" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>377</v>
+      </c>
+      <c r="B378" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>378</v>
+      </c>
+      <c r="B379" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>379</v>
+      </c>
+      <c r="B380" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>380</v>
+      </c>
+      <c r="B381" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>381</v>
+      </c>
+      <c r="B382" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>382</v>
+      </c>
+      <c r="B383" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>383</v>
+      </c>
+      <c r="B384" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>384</v>
+      </c>
+      <c r="B385" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s">
+        <v>385</v>
+      </c>
+      <c r="B386" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>386</v>
+      </c>
+      <c r="B387" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>387</v>
+      </c>
+      <c r="B388" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>388</v>
+      </c>
+      <c r="B389" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>389</v>
+      </c>
+      <c r="B390" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>390</v>
+      </c>
+      <c r="B391" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s">
+        <v>391</v>
+      </c>
+      <c r="B392" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s">
+        <v>392</v>
+      </c>
+      <c r="B393" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>393</v>
+      </c>
+      <c r="B394" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>394</v>
+      </c>
+      <c r="B395" t="s">
+        <v>788</v>
       </c>
     </row>
   </sheetData>
